--- a/media/template/TFC_zaiko.xlsx
+++ b/media/template/TFC_zaiko.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akiyoshi.oda\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akiyoshi.oda\Downloads\提案\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8940" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10530" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="zaiko" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">zaiko!$A$3:$AML$302</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">zaiko!$B$4:$P$302</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">zaiko!$A$3:$AML$303</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">zaiko!$B$4:$P$303</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">zaiko!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -241,7 +241,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -472,13 +472,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -618,17 +664,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -947,13 +1008,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMJ302"/>
+  <dimension ref="A1:AMJ303"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="6" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomRight" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1784,7 +1845,7 @@
       <c r="R40" s="11"/>
     </row>
     <row r="41" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="51" t="s">
+      <c r="A41" s="52" t="s">
         <v>10</v>
       </c>
       <c r="B41" s="9"/>
@@ -1806,7 +1867,7 @@
       <c r="R41" s="9"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A42" s="52"/>
+      <c r="A42" s="59"/>
       <c r="B42" s="10"/>
       <c r="C42" s="45"/>
       <c r="D42" s="45"/>
@@ -1826,7 +1887,7 @@
       <c r="R42" s="10"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A43" s="52"/>
+      <c r="A43" s="59"/>
       <c r="B43" s="10"/>
       <c r="C43" s="45"/>
       <c r="D43" s="45"/>
@@ -1846,7 +1907,7 @@
       <c r="R43" s="10"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A44" s="52"/>
+      <c r="A44" s="59"/>
       <c r="B44" s="10"/>
       <c r="C44" s="45"/>
       <c r="D44" s="45"/>
@@ -1866,7 +1927,7 @@
       <c r="R44" s="10"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A45" s="52"/>
+      <c r="A45" s="59"/>
       <c r="B45" s="10"/>
       <c r="C45" s="45"/>
       <c r="D45" s="45"/>
@@ -1886,7 +1947,7 @@
       <c r="R45" s="10"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A46" s="52"/>
+      <c r="A46" s="59"/>
       <c r="B46" s="10"/>
       <c r="C46" s="45"/>
       <c r="D46" s="45"/>
@@ -1906,7 +1967,7 @@
       <c r="R46" s="10"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A47" s="52"/>
+      <c r="A47" s="59"/>
       <c r="B47" s="10"/>
       <c r="C47" s="45"/>
       <c r="D47" s="45"/>
@@ -1926,7 +1987,7 @@
       <c r="R47" s="10"/>
     </row>
     <row r="48" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="52"/>
+      <c r="A48" s="59"/>
       <c r="B48" s="10"/>
       <c r="C48" s="45"/>
       <c r="D48" s="45"/>
@@ -1946,7 +2007,7 @@
       <c r="R48" s="10"/>
     </row>
     <row r="49" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="52"/>
+      <c r="A49" s="59"/>
       <c r="B49" s="10"/>
       <c r="C49" s="45"/>
       <c r="D49" s="45"/>
@@ -1966,7 +2027,7 @@
       <c r="R49" s="10"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A50" s="52"/>
+      <c r="A50" s="59"/>
       <c r="B50" s="10"/>
       <c r="C50" s="45"/>
       <c r="D50" s="45"/>
@@ -1986,7 +2047,7 @@
       <c r="R50" s="10"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A51" s="52"/>
+      <c r="A51" s="59"/>
       <c r="B51" s="10"/>
       <c r="C51" s="45"/>
       <c r="D51" s="45"/>
@@ -2006,7 +2067,7 @@
       <c r="R51" s="10"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A52" s="52"/>
+      <c r="A52" s="59"/>
       <c r="B52" s="10"/>
       <c r="C52" s="45"/>
       <c r="D52" s="45"/>
@@ -2026,7 +2087,7 @@
       <c r="R52" s="10"/>
     </row>
     <row r="53" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="52"/>
+      <c r="A53" s="59"/>
       <c r="B53" s="10"/>
       <c r="C53" s="45"/>
       <c r="D53" s="45"/>
@@ -2046,7 +2107,7 @@
       <c r="R53" s="10"/>
     </row>
     <row r="54" spans="1:18" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="52"/>
+      <c r="A54" s="59"/>
       <c r="B54" s="11"/>
       <c r="C54" s="47"/>
       <c r="D54" s="47"/>
@@ -2066,7 +2127,7 @@
       <c r="R54" s="11"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A55" s="51" t="s">
+      <c r="A55" s="52" t="s">
         <v>11</v>
       </c>
       <c r="B55" s="9"/>
@@ -2088,7 +2149,7 @@
       <c r="R55" s="9"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A56" s="52"/>
+      <c r="A56" s="59"/>
       <c r="B56" s="10"/>
       <c r="C56" s="45"/>
       <c r="D56" s="45"/>
@@ -2108,7 +2169,7 @@
       <c r="R56" s="10"/>
     </row>
     <row r="57" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="52"/>
+      <c r="A57" s="59"/>
       <c r="B57" s="10"/>
       <c r="C57" s="45"/>
       <c r="D57" s="45"/>
@@ -2128,7 +2189,7 @@
       <c r="R57" s="10"/>
     </row>
     <row r="58" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="52"/>
+      <c r="A58" s="59"/>
       <c r="B58" s="10"/>
       <c r="C58" s="45"/>
       <c r="D58" s="45"/>
@@ -2148,7 +2209,7 @@
       <c r="R58" s="10"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A59" s="52"/>
+      <c r="A59" s="59"/>
       <c r="B59" s="10"/>
       <c r="C59" s="45"/>
       <c r="D59" s="45"/>
@@ -2168,7 +2229,7 @@
       <c r="R59" s="10"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A60" s="52"/>
+      <c r="A60" s="59"/>
       <c r="B60" s="10"/>
       <c r="C60" s="45"/>
       <c r="D60" s="45"/>
@@ -2188,7 +2249,7 @@
       <c r="R60" s="10"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A61" s="52"/>
+      <c r="A61" s="59"/>
       <c r="B61" s="10"/>
       <c r="C61" s="45"/>
       <c r="D61" s="45"/>
@@ -2208,7 +2269,7 @@
       <c r="R61" s="10"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A62" s="52"/>
+      <c r="A62" s="59"/>
       <c r="B62" s="10"/>
       <c r="C62" s="45"/>
       <c r="D62" s="45"/>
@@ -2228,7 +2289,7 @@
       <c r="R62" s="10"/>
     </row>
     <row r="63" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="52"/>
+      <c r="A63" s="59"/>
       <c r="B63" s="11"/>
       <c r="C63" s="47"/>
       <c r="D63" s="47"/>
@@ -2248,7 +2309,7 @@
       <c r="R63" s="11"/>
     </row>
     <row r="64" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="51" t="s">
+      <c r="A64" s="52" t="s">
         <v>12</v>
       </c>
       <c r="B64" s="9"/>
@@ -2270,7 +2331,7 @@
       <c r="R64" s="9"/>
     </row>
     <row r="65" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="52"/>
+      <c r="A65" s="59"/>
       <c r="B65" s="10"/>
       <c r="C65" s="45"/>
       <c r="D65" s="45"/>
@@ -2290,7 +2351,7 @@
       <c r="R65" s="10"/>
     </row>
     <row r="66" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="52"/>
+      <c r="A66" s="59"/>
       <c r="B66" s="11"/>
       <c r="C66" s="47"/>
       <c r="D66" s="47"/>
@@ -2310,7 +2371,7 @@
       <c r="R66" s="11"/>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A67" s="51" t="s">
+      <c r="A67" s="52" t="s">
         <v>13</v>
       </c>
       <c r="B67" s="9"/>
@@ -2332,7 +2393,7 @@
       <c r="R67" s="9"/>
     </row>
     <row r="68" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="52"/>
+      <c r="A68" s="59"/>
       <c r="B68" s="10"/>
       <c r="C68" s="45"/>
       <c r="D68" s="45"/>
@@ -2352,7 +2413,7 @@
       <c r="R68" s="10"/>
     </row>
     <row r="69" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="52"/>
+      <c r="A69" s="59"/>
       <c r="B69" s="10"/>
       <c r="C69" s="45"/>
       <c r="D69" s="45"/>
@@ -2372,7 +2433,7 @@
       <c r="R69" s="10"/>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A70" s="52"/>
+      <c r="A70" s="59"/>
       <c r="B70" s="10"/>
       <c r="C70" s="45"/>
       <c r="D70" s="45"/>
@@ -2392,7 +2453,7 @@
       <c r="R70" s="10"/>
     </row>
     <row r="71" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="52"/>
+      <c r="A71" s="59"/>
       <c r="B71" s="10"/>
       <c r="C71" s="45"/>
       <c r="D71" s="45"/>
@@ -2412,7 +2473,7 @@
       <c r="R71" s="10"/>
     </row>
     <row r="72" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="52"/>
+      <c r="A72" s="59"/>
       <c r="B72" s="10"/>
       <c r="C72" s="45"/>
       <c r="D72" s="45"/>
@@ -2432,7 +2493,7 @@
       <c r="R72" s="10"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A73" s="52"/>
+      <c r="A73" s="59"/>
       <c r="B73" s="10"/>
       <c r="C73" s="45"/>
       <c r="D73" s="45"/>
@@ -2452,7 +2513,7 @@
       <c r="R73" s="10"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A74" s="52"/>
+      <c r="A74" s="59"/>
       <c r="B74" s="10"/>
       <c r="C74" s="45"/>
       <c r="D74" s="45"/>
@@ -2472,7 +2533,7 @@
       <c r="R74" s="10"/>
     </row>
     <row r="75" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="52"/>
+      <c r="A75" s="59"/>
       <c r="B75" s="10"/>
       <c r="C75" s="45"/>
       <c r="D75" s="45"/>
@@ -2492,7 +2553,7 @@
       <c r="R75" s="10"/>
     </row>
     <row r="76" spans="1:18" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="52"/>
+      <c r="A76" s="59"/>
       <c r="B76" s="11"/>
       <c r="C76" s="47"/>
       <c r="D76" s="47"/>
@@ -2512,7 +2573,7 @@
       <c r="R76" s="11"/>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A77" s="51" t="s">
+      <c r="A77" s="52" t="s">
         <v>14</v>
       </c>
       <c r="B77" s="9"/>
@@ -2534,7 +2595,7 @@
       <c r="R77" s="9"/>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A78" s="52"/>
+      <c r="A78" s="59"/>
       <c r="B78" s="10"/>
       <c r="C78" s="45"/>
       <c r="D78" s="45"/>
@@ -2554,7 +2615,7 @@
       <c r="R78" s="10"/>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A79" s="52"/>
+      <c r="A79" s="59"/>
       <c r="B79" s="10"/>
       <c r="C79" s="45"/>
       <c r="D79" s="45"/>
@@ -2574,7 +2635,7 @@
       <c r="R79" s="10"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A80" s="52"/>
+      <c r="A80" s="59"/>
       <c r="B80" s="10"/>
       <c r="C80" s="45"/>
       <c r="D80" s="45"/>
@@ -2594,7 +2655,7 @@
       <c r="R80" s="10"/>
     </row>
     <row r="81" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="52"/>
+      <c r="A81" s="59"/>
       <c r="B81" s="10"/>
       <c r="C81" s="45"/>
       <c r="D81" s="45"/>
@@ -2614,7 +2675,7 @@
       <c r="R81" s="10"/>
     </row>
     <row r="82" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="52"/>
+      <c r="A82" s="59"/>
       <c r="B82" s="10"/>
       <c r="C82" s="45"/>
       <c r="D82" s="45"/>
@@ -2634,7 +2695,7 @@
       <c r="R82" s="10"/>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A83" s="52"/>
+      <c r="A83" s="59"/>
       <c r="B83" s="10"/>
       <c r="C83" s="45"/>
       <c r="D83" s="45"/>
@@ -2654,7 +2715,7 @@
       <c r="R83" s="10"/>
     </row>
     <row r="84" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="52"/>
+      <c r="A84" s="59"/>
       <c r="B84" s="11"/>
       <c r="C84" s="47"/>
       <c r="D84" s="47"/>
@@ -2696,7 +2757,7 @@
       <c r="R85" s="18"/>
     </row>
     <row r="86" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="51" t="s">
+      <c r="A86" s="52" t="s">
         <v>16</v>
       </c>
       <c r="B86" s="9"/>
@@ -2718,7 +2779,7 @@
       <c r="R86" s="9"/>
     </row>
     <row r="87" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="52"/>
+      <c r="A87" s="59"/>
       <c r="B87" s="10"/>
       <c r="C87" s="45"/>
       <c r="D87" s="45"/>
@@ -2738,7 +2799,7 @@
       <c r="R87" s="10"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A88" s="52"/>
+      <c r="A88" s="59"/>
       <c r="B88" s="10"/>
       <c r="C88" s="45"/>
       <c r="D88" s="45"/>
@@ -2758,7 +2819,7 @@
       <c r="R88" s="10"/>
     </row>
     <row r="89" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="52"/>
+      <c r="A89" s="59"/>
       <c r="B89" s="10"/>
       <c r="C89" s="45"/>
       <c r="D89" s="45"/>
@@ -2778,7 +2839,7 @@
       <c r="R89" s="10"/>
     </row>
     <row r="90" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="52"/>
+      <c r="A90" s="59"/>
       <c r="B90" s="10"/>
       <c r="C90" s="45"/>
       <c r="D90" s="45"/>
@@ -2798,7 +2859,7 @@
       <c r="R90" s="10"/>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A91" s="52"/>
+      <c r="A91" s="59"/>
       <c r="B91" s="10"/>
       <c r="C91" s="45"/>
       <c r="D91" s="45"/>
@@ -2818,7 +2879,7 @@
       <c r="R91" s="10"/>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A92" s="52"/>
+      <c r="A92" s="59"/>
       <c r="B92" s="10"/>
       <c r="C92" s="45"/>
       <c r="D92" s="45"/>
@@ -2838,7 +2899,7 @@
       <c r="R92" s="10"/>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A93" s="52"/>
+      <c r="A93" s="59"/>
       <c r="B93" s="10"/>
       <c r="C93" s="45"/>
       <c r="D93" s="45"/>
@@ -2858,7 +2919,7 @@
       <c r="R93" s="10"/>
     </row>
     <row r="94" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="52"/>
+      <c r="A94" s="59"/>
       <c r="B94" s="11"/>
       <c r="C94" s="47"/>
       <c r="D94" s="47"/>
@@ -2878,7 +2939,7 @@
       <c r="R94" s="11"/>
     </row>
     <row r="95" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="51" t="s">
+      <c r="A95" s="52" t="s">
         <v>17</v>
       </c>
       <c r="B95" s="9"/>
@@ -2900,7 +2961,7 @@
       <c r="R95" s="9"/>
     </row>
     <row r="96" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="52"/>
+      <c r="A96" s="59"/>
       <c r="B96" s="10"/>
       <c r="C96" s="45"/>
       <c r="D96" s="45"/>
@@ -2920,7 +2981,7 @@
       <c r="R96" s="10"/>
     </row>
     <row r="97" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="52"/>
+      <c r="A97" s="59"/>
       <c r="B97" s="10"/>
       <c r="C97" s="45"/>
       <c r="D97" s="45"/>
@@ -2940,7 +3001,7 @@
       <c r="R97" s="10"/>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A98" s="52"/>
+      <c r="A98" s="59"/>
       <c r="B98" s="10"/>
       <c r="C98" s="45"/>
       <c r="D98" s="45"/>
@@ -2960,7 +3021,7 @@
       <c r="R98" s="10"/>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A99" s="52"/>
+      <c r="A99" s="59"/>
       <c r="B99" s="10"/>
       <c r="C99" s="45"/>
       <c r="D99" s="45"/>
@@ -2980,7 +3041,7 @@
       <c r="R99" s="10"/>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A100" s="52"/>
+      <c r="A100" s="59"/>
       <c r="B100" s="10"/>
       <c r="C100" s="45"/>
       <c r="D100" s="45"/>
@@ -3000,7 +3061,7 @@
       <c r="R100" s="10"/>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A101" s="52"/>
+      <c r="A101" s="59"/>
       <c r="B101" s="10"/>
       <c r="C101" s="45"/>
       <c r="D101" s="45"/>
@@ -3020,7 +3081,7 @@
       <c r="R101" s="10"/>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A102" s="52"/>
+      <c r="A102" s="59"/>
       <c r="B102" s="10"/>
       <c r="C102" s="45"/>
       <c r="D102" s="45"/>
@@ -3040,7 +3101,7 @@
       <c r="R102" s="10"/>
     </row>
     <row r="103" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="52"/>
+      <c r="A103" s="59"/>
       <c r="B103" s="11"/>
       <c r="C103" s="47"/>
       <c r="D103" s="47"/>
@@ -3060,7 +3121,7 @@
       <c r="R103" s="11"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A104" s="51" t="s">
+      <c r="A104" s="52" t="s">
         <v>18</v>
       </c>
       <c r="B104" s="9"/>
@@ -3082,7 +3143,7 @@
       <c r="R104" s="9"/>
     </row>
     <row r="105" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="52"/>
+      <c r="A105" s="59"/>
       <c r="B105" s="10"/>
       <c r="C105" s="45"/>
       <c r="D105" s="45"/>
@@ -3102,7 +3163,7 @@
       <c r="R105" s="10"/>
     </row>
     <row r="106" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="52"/>
+      <c r="A106" s="59"/>
       <c r="B106" s="10"/>
       <c r="C106" s="45"/>
       <c r="D106" s="45"/>
@@ -3122,7 +3183,7 @@
       <c r="R106" s="10"/>
     </row>
     <row r="107" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="52"/>
+      <c r="A107" s="59"/>
       <c r="B107" s="10"/>
       <c r="C107" s="45"/>
       <c r="D107" s="45"/>
@@ -3142,7 +3203,7 @@
       <c r="R107" s="10"/>
     </row>
     <row r="108" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="52"/>
+      <c r="A108" s="59"/>
       <c r="B108" s="10"/>
       <c r="C108" s="45"/>
       <c r="D108" s="45"/>
@@ -3162,7 +3223,7 @@
       <c r="R108" s="10"/>
     </row>
     <row r="109" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="52"/>
+      <c r="A109" s="59"/>
       <c r="B109" s="10"/>
       <c r="C109" s="45"/>
       <c r="D109" s="45"/>
@@ -3182,7 +3243,7 @@
       <c r="R109" s="10"/>
     </row>
     <row r="110" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="52"/>
+      <c r="A110" s="59"/>
       <c r="B110" s="10"/>
       <c r="C110" s="45"/>
       <c r="D110" s="45"/>
@@ -3202,7 +3263,7 @@
       <c r="R110" s="10"/>
     </row>
     <row r="111" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="52"/>
+      <c r="A111" s="59"/>
       <c r="B111" s="10"/>
       <c r="C111" s="45"/>
       <c r="D111" s="45"/>
@@ -3222,7 +3283,7 @@
       <c r="R111" s="10"/>
     </row>
     <row r="112" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="52"/>
+      <c r="A112" s="59"/>
       <c r="B112" s="11"/>
       <c r="C112" s="47"/>
       <c r="D112" s="47"/>
@@ -3242,7 +3303,7 @@
       <c r="R112" s="11"/>
     </row>
     <row r="113" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="51" t="s">
+      <c r="A113" s="52" t="s">
         <v>19</v>
       </c>
       <c r="B113" s="9"/>
@@ -3264,7 +3325,7 @@
       <c r="R113" s="9"/>
     </row>
     <row r="114" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="52"/>
+      <c r="A114" s="59"/>
       <c r="B114" s="10"/>
       <c r="C114" s="45"/>
       <c r="D114" s="45"/>
@@ -3284,7 +3345,7 @@
       <c r="R114" s="10"/>
     </row>
     <row r="115" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="52"/>
+      <c r="A115" s="59"/>
       <c r="B115" s="10"/>
       <c r="C115" s="45"/>
       <c r="D115" s="45"/>
@@ -3304,7 +3365,7 @@
       <c r="R115" s="10"/>
     </row>
     <row r="116" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="52"/>
+      <c r="A116" s="59"/>
       <c r="B116" s="10"/>
       <c r="C116" s="45"/>
       <c r="D116" s="45"/>
@@ -3324,7 +3385,7 @@
       <c r="R116" s="10"/>
     </row>
     <row r="117" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="52"/>
+      <c r="A117" s="59"/>
       <c r="B117" s="10"/>
       <c r="C117" s="45"/>
       <c r="D117" s="45"/>
@@ -3344,7 +3405,7 @@
       <c r="R117" s="10"/>
     </row>
     <row r="118" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="52"/>
+      <c r="A118" s="59"/>
       <c r="B118" s="10"/>
       <c r="C118" s="45"/>
       <c r="D118" s="45"/>
@@ -3364,7 +3425,7 @@
       <c r="R118" s="10"/>
     </row>
     <row r="119" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="52"/>
+      <c r="A119" s="59"/>
       <c r="B119" s="10"/>
       <c r="C119" s="45"/>
       <c r="D119" s="45"/>
@@ -3384,7 +3445,7 @@
       <c r="R119" s="10"/>
     </row>
     <row r="120" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="52"/>
+      <c r="A120" s="59"/>
       <c r="B120" s="10"/>
       <c r="C120" s="45"/>
       <c r="D120" s="45"/>
@@ -3404,7 +3465,7 @@
       <c r="R120" s="10"/>
     </row>
     <row r="121" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="52"/>
+      <c r="A121" s="59"/>
       <c r="B121" s="11"/>
       <c r="C121" s="47"/>
       <c r="D121" s="47"/>
@@ -3424,7 +3485,7 @@
       <c r="R121" s="11"/>
     </row>
     <row r="122" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="51" t="s">
+      <c r="A122" s="52" t="s">
         <v>20</v>
       </c>
       <c r="B122" s="9"/>
@@ -3446,7 +3507,7 @@
       <c r="R122" s="9"/>
     </row>
     <row r="123" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="52"/>
+      <c r="A123" s="59"/>
       <c r="B123" s="10"/>
       <c r="C123" s="45"/>
       <c r="D123" s="45"/>
@@ -3466,7 +3527,7 @@
       <c r="R123" s="10"/>
     </row>
     <row r="124" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="52"/>
+      <c r="A124" s="59"/>
       <c r="B124" s="10"/>
       <c r="C124" s="45"/>
       <c r="D124" s="45"/>
@@ -3486,7 +3547,7 @@
       <c r="R124" s="10"/>
     </row>
     <row r="125" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="52"/>
+      <c r="A125" s="59"/>
       <c r="B125" s="10"/>
       <c r="C125" s="45"/>
       <c r="D125" s="45"/>
@@ -3506,7 +3567,7 @@
       <c r="R125" s="10"/>
     </row>
     <row r="126" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="52"/>
+      <c r="A126" s="59"/>
       <c r="B126" s="10"/>
       <c r="C126" s="45"/>
       <c r="D126" s="45"/>
@@ -3526,7 +3587,7 @@
       <c r="R126" s="10"/>
     </row>
     <row r="127" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="52"/>
+      <c r="A127" s="59"/>
       <c r="B127" s="10"/>
       <c r="C127" s="45"/>
       <c r="D127" s="45"/>
@@ -3546,7 +3607,7 @@
       <c r="R127" s="10"/>
     </row>
     <row r="128" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="52"/>
+      <c r="A128" s="59"/>
       <c r="B128" s="10"/>
       <c r="C128" s="45"/>
       <c r="D128" s="45"/>
@@ -3566,7 +3627,7 @@
       <c r="R128" s="10"/>
     </row>
     <row r="129" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="52"/>
+      <c r="A129" s="59"/>
       <c r="B129" s="10"/>
       <c r="C129" s="45"/>
       <c r="D129" s="45"/>
@@ -3586,7 +3647,7 @@
       <c r="R129" s="10"/>
     </row>
     <row r="130" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="52"/>
+      <c r="A130" s="59"/>
       <c r="B130" s="11"/>
       <c r="C130" s="47"/>
       <c r="D130" s="47"/>
@@ -3606,7 +3667,7 @@
       <c r="R130" s="11"/>
     </row>
     <row r="131" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="51" t="s">
+      <c r="A131" s="52" t="s">
         <v>21</v>
       </c>
       <c r="B131" s="9"/>
@@ -3628,7 +3689,7 @@
       <c r="R131" s="9"/>
     </row>
     <row r="132" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="52"/>
+      <c r="A132" s="59"/>
       <c r="B132" s="10"/>
       <c r="C132" s="45"/>
       <c r="D132" s="45"/>
@@ -3648,7 +3709,7 @@
       <c r="R132" s="10"/>
     </row>
     <row r="133" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="52"/>
+      <c r="A133" s="59"/>
       <c r="B133" s="10"/>
       <c r="C133" s="45"/>
       <c r="D133" s="45"/>
@@ -3668,7 +3729,7 @@
       <c r="R133" s="10"/>
     </row>
     <row r="134" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="52"/>
+      <c r="A134" s="59"/>
       <c r="B134" s="10"/>
       <c r="C134" s="45"/>
       <c r="D134" s="45"/>
@@ -3688,7 +3749,7 @@
       <c r="R134" s="10"/>
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A135" s="52"/>
+      <c r="A135" s="59"/>
       <c r="B135" s="10"/>
       <c r="C135" s="45"/>
       <c r="D135" s="45"/>
@@ -3708,7 +3769,7 @@
       <c r="R135" s="10"/>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A136" s="52"/>
+      <c r="A136" s="59"/>
       <c r="B136" s="10"/>
       <c r="C136" s="45"/>
       <c r="D136" s="45"/>
@@ -3728,7 +3789,7 @@
       <c r="R136" s="10"/>
     </row>
     <row r="137" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="52"/>
+      <c r="A137" s="59"/>
       <c r="B137" s="10"/>
       <c r="C137" s="45"/>
       <c r="D137" s="45"/>
@@ -3748,7 +3809,7 @@
       <c r="R137" s="10"/>
     </row>
     <row r="138" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="52"/>
+      <c r="A138" s="59"/>
       <c r="B138" s="10"/>
       <c r="C138" s="45"/>
       <c r="D138" s="45"/>
@@ -3768,7 +3829,7 @@
       <c r="R138" s="10"/>
     </row>
     <row r="139" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="52"/>
+      <c r="A139" s="59"/>
       <c r="B139" s="11"/>
       <c r="C139" s="47"/>
       <c r="D139" s="47"/>
@@ -3788,7 +3849,7 @@
       <c r="R139" s="11"/>
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A140" s="51" t="s">
+      <c r="A140" s="52" t="s">
         <v>22</v>
       </c>
       <c r="B140" s="9"/>
@@ -3810,7 +3871,7 @@
       <c r="R140" s="9"/>
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A141" s="52"/>
+      <c r="A141" s="59"/>
       <c r="B141" s="10"/>
       <c r="C141" s="45"/>
       <c r="D141" s="45"/>
@@ -3830,7 +3891,7 @@
       <c r="R141" s="10"/>
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A142" s="52"/>
+      <c r="A142" s="59"/>
       <c r="B142" s="10"/>
       <c r="C142" s="45"/>
       <c r="D142" s="45"/>
@@ -3850,7 +3911,7 @@
       <c r="R142" s="10"/>
     </row>
     <row r="143" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="52"/>
+      <c r="A143" s="59"/>
       <c r="B143" s="10"/>
       <c r="C143" s="45"/>
       <c r="D143" s="45"/>
@@ -3870,7 +3931,7 @@
       <c r="R143" s="10"/>
     </row>
     <row r="144" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="52"/>
+      <c r="A144" s="59"/>
       <c r="B144" s="10"/>
       <c r="C144" s="45"/>
       <c r="D144" s="45"/>
@@ -3890,7 +3951,7 @@
       <c r="R144" s="10"/>
     </row>
     <row r="145" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A145" s="52"/>
+      <c r="A145" s="59"/>
       <c r="B145" s="10"/>
       <c r="C145" s="45"/>
       <c r="D145" s="45"/>
@@ -3910,7 +3971,7 @@
       <c r="R145" s="10"/>
     </row>
     <row r="146" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A146" s="52"/>
+      <c r="A146" s="59"/>
       <c r="B146" s="10"/>
       <c r="C146" s="45"/>
       <c r="D146" s="45"/>
@@ -3930,7 +3991,7 @@
       <c r="R146" s="10"/>
     </row>
     <row r="147" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="52"/>
+      <c r="A147" s="59"/>
       <c r="B147" s="10"/>
       <c r="C147" s="45"/>
       <c r="D147" s="45"/>
@@ -3950,7 +4011,7 @@
       <c r="R147" s="10"/>
     </row>
     <row r="148" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A148" s="52"/>
+      <c r="A148" s="59"/>
       <c r="B148" s="10"/>
       <c r="C148" s="45"/>
       <c r="D148" s="45"/>
@@ -3970,7 +4031,7 @@
       <c r="R148" s="10"/>
     </row>
     <row r="149" spans="1:18" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="52"/>
+      <c r="A149" s="59"/>
       <c r="B149" s="11"/>
       <c r="C149" s="47"/>
       <c r="D149" s="47"/>
@@ -3990,7 +4051,7 @@
       <c r="R149" s="11"/>
     </row>
     <row r="150" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A150" s="51" t="s">
+      <c r="A150" s="52" t="s">
         <v>23</v>
       </c>
       <c r="B150" s="9"/>
@@ -4012,7 +4073,7 @@
       <c r="R150" s="9"/>
     </row>
     <row r="151" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A151" s="52"/>
+      <c r="A151" s="59"/>
       <c r="B151" s="10"/>
       <c r="C151" s="45"/>
       <c r="D151" s="45"/>
@@ -4032,7 +4093,7 @@
       <c r="R151" s="10"/>
     </row>
     <row r="152" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A152" s="52"/>
+      <c r="A152" s="59"/>
       <c r="B152" s="10"/>
       <c r="C152" s="45"/>
       <c r="D152" s="45"/>
@@ -4052,7 +4113,7 @@
       <c r="R152" s="10"/>
     </row>
     <row r="153" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A153" s="52"/>
+      <c r="A153" s="59"/>
       <c r="B153" s="10"/>
       <c r="C153" s="45"/>
       <c r="D153" s="45"/>
@@ -4072,7 +4133,7 @@
       <c r="R153" s="10"/>
     </row>
     <row r="154" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A154" s="52"/>
+      <c r="A154" s="59"/>
       <c r="B154" s="10"/>
       <c r="C154" s="45"/>
       <c r="D154" s="45"/>
@@ -4092,7 +4153,7 @@
       <c r="R154" s="10"/>
     </row>
     <row r="155" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="52"/>
+      <c r="A155" s="59"/>
       <c r="B155" s="10"/>
       <c r="C155" s="45"/>
       <c r="D155" s="45"/>
@@ -4112,7 +4173,7 @@
       <c r="R155" s="10"/>
     </row>
     <row r="156" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A156" s="52"/>
+      <c r="A156" s="59"/>
       <c r="B156" s="10"/>
       <c r="C156" s="45"/>
       <c r="D156" s="45"/>
@@ -4132,7 +4193,7 @@
       <c r="R156" s="10"/>
     </row>
     <row r="157" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A157" s="52"/>
+      <c r="A157" s="59"/>
       <c r="B157" s="10"/>
       <c r="C157" s="45"/>
       <c r="D157" s="45"/>
@@ -4152,7 +4213,7 @@
       <c r="R157" s="10"/>
     </row>
     <row r="158" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A158" s="52"/>
+      <c r="A158" s="59"/>
       <c r="B158" s="10"/>
       <c r="C158" s="45"/>
       <c r="D158" s="45"/>
@@ -4172,7 +4233,7 @@
       <c r="R158" s="10"/>
     </row>
     <row r="159" spans="1:18" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="52"/>
+      <c r="A159" s="59"/>
       <c r="B159" s="11"/>
       <c r="C159" s="47"/>
       <c r="D159" s="47"/>
@@ -4192,7 +4253,7 @@
       <c r="R159" s="11"/>
     </row>
     <row r="160" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A160" s="51" t="s">
+      <c r="A160" s="52" t="s">
         <v>24</v>
       </c>
       <c r="B160" s="9"/>
@@ -4214,7 +4275,7 @@
       <c r="R160" s="9"/>
     </row>
     <row r="161" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A161" s="52"/>
+      <c r="A161" s="59"/>
       <c r="B161" s="10"/>
       <c r="C161" s="45"/>
       <c r="D161" s="45"/>
@@ -4234,7 +4295,7 @@
       <c r="R161" s="10"/>
     </row>
     <row r="162" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A162" s="52"/>
+      <c r="A162" s="59"/>
       <c r="B162" s="10"/>
       <c r="C162" s="45"/>
       <c r="D162" s="45"/>
@@ -4254,7 +4315,7 @@
       <c r="R162" s="10"/>
     </row>
     <row r="163" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A163" s="52"/>
+      <c r="A163" s="59"/>
       <c r="B163" s="10"/>
       <c r="C163" s="45"/>
       <c r="D163" s="45"/>
@@ -4274,7 +4335,7 @@
       <c r="R163" s="10"/>
     </row>
     <row r="164" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A164" s="52"/>
+      <c r="A164" s="59"/>
       <c r="B164" s="10"/>
       <c r="C164" s="45"/>
       <c r="D164" s="45"/>
@@ -4294,7 +4355,7 @@
       <c r="R164" s="10"/>
     </row>
     <row r="165" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A165" s="52"/>
+      <c r="A165" s="59"/>
       <c r="B165" s="10"/>
       <c r="C165" s="45"/>
       <c r="D165" s="45"/>
@@ -4314,7 +4375,7 @@
       <c r="R165" s="10"/>
     </row>
     <row r="166" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A166" s="52"/>
+      <c r="A166" s="59"/>
       <c r="B166" s="10"/>
       <c r="C166" s="45"/>
       <c r="D166" s="45"/>
@@ -4334,7 +4395,7 @@
       <c r="R166" s="10"/>
     </row>
     <row r="167" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A167" s="52"/>
+      <c r="A167" s="59"/>
       <c r="B167" s="10"/>
       <c r="C167" s="45"/>
       <c r="D167" s="45"/>
@@ -4354,7 +4415,7 @@
       <c r="R167" s="10"/>
     </row>
     <row r="168" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A168" s="52"/>
+      <c r="A168" s="59"/>
       <c r="B168" s="10"/>
       <c r="C168" s="45"/>
       <c r="D168" s="45"/>
@@ -4374,7 +4435,7 @@
       <c r="R168" s="10"/>
     </row>
     <row r="169" spans="1:18" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="52"/>
+      <c r="A169" s="59"/>
       <c r="B169" s="11"/>
       <c r="C169" s="47"/>
       <c r="D169" s="47"/>
@@ -4394,7 +4455,7 @@
       <c r="R169" s="11"/>
     </row>
     <row r="170" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A170" s="51" t="s">
+      <c r="A170" s="52" t="s">
         <v>25</v>
       </c>
       <c r="B170" s="9"/>
@@ -4416,7 +4477,7 @@
       <c r="R170" s="9"/>
     </row>
     <row r="171" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A171" s="52"/>
+      <c r="A171" s="59"/>
       <c r="B171" s="10"/>
       <c r="C171" s="45"/>
       <c r="D171" s="45"/>
@@ -4436,7 +4497,7 @@
       <c r="R171" s="10"/>
     </row>
     <row r="172" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A172" s="52"/>
+      <c r="A172" s="59"/>
       <c r="B172" s="10"/>
       <c r="C172" s="45"/>
       <c r="D172" s="45"/>
@@ -4456,7 +4517,7 @@
       <c r="R172" s="10"/>
     </row>
     <row r="173" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A173" s="52"/>
+      <c r="A173" s="59"/>
       <c r="B173" s="10"/>
       <c r="C173" s="45"/>
       <c r="D173" s="45"/>
@@ -4476,7 +4537,7 @@
       <c r="R173" s="10"/>
     </row>
     <row r="174" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A174" s="52"/>
+      <c r="A174" s="59"/>
       <c r="B174" s="10"/>
       <c r="C174" s="45"/>
       <c r="D174" s="45"/>
@@ -4496,7 +4557,7 @@
       <c r="R174" s="10"/>
     </row>
     <row r="175" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A175" s="52"/>
+      <c r="A175" s="59"/>
       <c r="B175" s="10"/>
       <c r="C175" s="45"/>
       <c r="D175" s="45"/>
@@ -4516,7 +4577,7 @@
       <c r="R175" s="10"/>
     </row>
     <row r="176" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A176" s="52"/>
+      <c r="A176" s="59"/>
       <c r="B176" s="10"/>
       <c r="C176" s="45"/>
       <c r="D176" s="45"/>
@@ -4536,7 +4597,7 @@
       <c r="R176" s="10"/>
     </row>
     <row r="177" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A177" s="52"/>
+      <c r="A177" s="59"/>
       <c r="B177" s="10"/>
       <c r="C177" s="45"/>
       <c r="D177" s="45"/>
@@ -4556,7 +4617,7 @@
       <c r="R177" s="10"/>
     </row>
     <row r="178" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A178" s="52"/>
+      <c r="A178" s="59"/>
       <c r="B178" s="10"/>
       <c r="C178" s="45"/>
       <c r="D178" s="45"/>
@@ -4576,7 +4637,7 @@
       <c r="R178" s="10"/>
     </row>
     <row r="179" spans="1:18" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="52"/>
+      <c r="A179" s="59"/>
       <c r="B179" s="11"/>
       <c r="C179" s="47"/>
       <c r="D179" s="47"/>
@@ -4596,7 +4657,7 @@
       <c r="R179" s="11"/>
     </row>
     <row r="180" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A180" s="51" t="s">
+      <c r="A180" s="52" t="s">
         <v>26</v>
       </c>
       <c r="B180" s="9"/>
@@ -4618,7 +4679,7 @@
       <c r="R180" s="9"/>
     </row>
     <row r="181" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A181" s="52"/>
+      <c r="A181" s="59"/>
       <c r="B181" s="10"/>
       <c r="C181" s="45"/>
       <c r="D181" s="45"/>
@@ -4638,7 +4699,7 @@
       <c r="R181" s="10"/>
     </row>
     <row r="182" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A182" s="52"/>
+      <c r="A182" s="59"/>
       <c r="B182" s="10"/>
       <c r="C182" s="45"/>
       <c r="D182" s="45"/>
@@ -4658,7 +4719,7 @@
       <c r="R182" s="10"/>
     </row>
     <row r="183" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A183" s="52"/>
+      <c r="A183" s="59"/>
       <c r="B183" s="10"/>
       <c r="C183" s="45"/>
       <c r="D183" s="45"/>
@@ -4678,7 +4739,7 @@
       <c r="R183" s="10"/>
     </row>
     <row r="184" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A184" s="52"/>
+      <c r="A184" s="59"/>
       <c r="B184" s="10"/>
       <c r="C184" s="45"/>
       <c r="D184" s="45"/>
@@ -4698,7 +4759,7 @@
       <c r="R184" s="10"/>
     </row>
     <row r="185" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A185" s="52"/>
+      <c r="A185" s="59"/>
       <c r="B185" s="10"/>
       <c r="C185" s="45"/>
       <c r="D185" s="45"/>
@@ -4718,7 +4779,7 @@
       <c r="R185" s="10"/>
     </row>
     <row r="186" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A186" s="52"/>
+      <c r="A186" s="59"/>
       <c r="B186" s="10"/>
       <c r="C186" s="45"/>
       <c r="D186" s="45"/>
@@ -4738,7 +4799,7 @@
       <c r="R186" s="10"/>
     </row>
     <row r="187" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A187" s="52"/>
+      <c r="A187" s="59"/>
       <c r="B187" s="10"/>
       <c r="C187" s="45"/>
       <c r="D187" s="45"/>
@@ -4758,7 +4819,7 @@
       <c r="R187" s="10"/>
     </row>
     <row r="188" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A188" s="52"/>
+      <c r="A188" s="59"/>
       <c r="B188" s="10"/>
       <c r="C188" s="45"/>
       <c r="D188" s="45"/>
@@ -4778,7 +4839,7 @@
       <c r="R188" s="10"/>
     </row>
     <row r="189" spans="1:18" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="52"/>
+      <c r="A189" s="59"/>
       <c r="B189" s="11"/>
       <c r="C189" s="47"/>
       <c r="D189" s="47"/>
@@ -4798,7 +4859,7 @@
       <c r="R189" s="11"/>
     </row>
     <row r="190" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A190" s="51" t="s">
+      <c r="A190" s="52" t="s">
         <v>27</v>
       </c>
       <c r="B190" s="9"/>
@@ -4820,7 +4881,7 @@
       <c r="R190" s="9"/>
     </row>
     <row r="191" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A191" s="52"/>
+      <c r="A191" s="59"/>
       <c r="B191" s="10"/>
       <c r="C191" s="45"/>
       <c r="D191" s="45"/>
@@ -4840,7 +4901,7 @@
       <c r="R191" s="10"/>
     </row>
     <row r="192" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A192" s="52"/>
+      <c r="A192" s="59"/>
       <c r="B192" s="10"/>
       <c r="C192" s="45"/>
       <c r="D192" s="45"/>
@@ -4860,7 +4921,7 @@
       <c r="R192" s="10"/>
     </row>
     <row r="193" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A193" s="52"/>
+      <c r="A193" s="59"/>
       <c r="B193" s="10"/>
       <c r="C193" s="45"/>
       <c r="D193" s="45"/>
@@ -4880,7 +4941,7 @@
       <c r="R193" s="10"/>
     </row>
     <row r="194" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A194" s="52"/>
+      <c r="A194" s="59"/>
       <c r="B194" s="10"/>
       <c r="C194" s="45"/>
       <c r="D194" s="45"/>
@@ -4900,7 +4961,7 @@
       <c r="R194" s="10"/>
     </row>
     <row r="195" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A195" s="52"/>
+      <c r="A195" s="59"/>
       <c r="B195" s="10"/>
       <c r="C195" s="45"/>
       <c r="D195" s="45"/>
@@ -4920,7 +4981,7 @@
       <c r="R195" s="10"/>
     </row>
     <row r="196" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A196" s="52"/>
+      <c r="A196" s="59"/>
       <c r="B196" s="10"/>
       <c r="C196" s="45"/>
       <c r="D196" s="45"/>
@@ -4940,7 +5001,7 @@
       <c r="R196" s="10"/>
     </row>
     <row r="197" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A197" s="52"/>
+      <c r="A197" s="59"/>
       <c r="B197" s="10"/>
       <c r="C197" s="45"/>
       <c r="D197" s="45"/>
@@ -4960,7 +5021,7 @@
       <c r="R197" s="10"/>
     </row>
     <row r="198" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A198" s="52"/>
+      <c r="A198" s="59"/>
       <c r="B198" s="10"/>
       <c r="C198" s="45"/>
       <c r="D198" s="45"/>
@@ -4980,7 +5041,7 @@
       <c r="R198" s="10"/>
     </row>
     <row r="199" spans="1:18" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="52"/>
+      <c r="A199" s="59"/>
       <c r="B199" s="11"/>
       <c r="C199" s="47"/>
       <c r="D199" s="47"/>
@@ -5000,7 +5061,7 @@
       <c r="R199" s="11"/>
     </row>
     <row r="200" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A200" s="51" t="s">
+      <c r="A200" s="52" t="s">
         <v>28</v>
       </c>
       <c r="B200" s="9"/>
@@ -5022,7 +5083,7 @@
       <c r="R200" s="9"/>
     </row>
     <row r="201" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A201" s="52"/>
+      <c r="A201" s="59"/>
       <c r="B201" s="10"/>
       <c r="C201" s="45"/>
       <c r="D201" s="45"/>
@@ -5042,7 +5103,7 @@
       <c r="R201" s="10"/>
     </row>
     <row r="202" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A202" s="52"/>
+      <c r="A202" s="59"/>
       <c r="B202" s="10"/>
       <c r="C202" s="45"/>
       <c r="D202" s="45"/>
@@ -5062,7 +5123,7 @@
       <c r="R202" s="10"/>
     </row>
     <row r="203" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A203" s="52"/>
+      <c r="A203" s="59"/>
       <c r="B203" s="10"/>
       <c r="C203" s="45"/>
       <c r="D203" s="45"/>
@@ -5082,7 +5143,7 @@
       <c r="R203" s="10"/>
     </row>
     <row r="204" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A204" s="52"/>
+      <c r="A204" s="59"/>
       <c r="B204" s="10"/>
       <c r="C204" s="45"/>
       <c r="D204" s="45"/>
@@ -5102,7 +5163,7 @@
       <c r="R204" s="10"/>
     </row>
     <row r="205" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A205" s="52"/>
+      <c r="A205" s="59"/>
       <c r="B205" s="10"/>
       <c r="C205" s="45"/>
       <c r="D205" s="45"/>
@@ -5122,7 +5183,7 @@
       <c r="R205" s="10"/>
     </row>
     <row r="206" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A206" s="52"/>
+      <c r="A206" s="59"/>
       <c r="B206" s="10"/>
       <c r="C206" s="45"/>
       <c r="D206" s="45"/>
@@ -5142,7 +5203,7 @@
       <c r="R206" s="10"/>
     </row>
     <row r="207" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A207" s="52"/>
+      <c r="A207" s="59"/>
       <c r="B207" s="10"/>
       <c r="C207" s="45"/>
       <c r="D207" s="45"/>
@@ -5162,7 +5223,7 @@
       <c r="R207" s="10"/>
     </row>
     <row r="208" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A208" s="52"/>
+      <c r="A208" s="59"/>
       <c r="B208" s="10"/>
       <c r="C208" s="45"/>
       <c r="D208" s="45"/>
@@ -5182,7 +5243,7 @@
       <c r="R208" s="10"/>
     </row>
     <row r="209" spans="1:18" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="52"/>
+      <c r="A209" s="59"/>
       <c r="B209" s="11"/>
       <c r="C209" s="47"/>
       <c r="D209" s="47"/>
@@ -5202,7 +5263,7 @@
       <c r="R209" s="11"/>
     </row>
     <row r="210" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A210" s="51" t="s">
+      <c r="A210" s="52" t="s">
         <v>29</v>
       </c>
       <c r="B210" s="9"/>
@@ -5224,7 +5285,7 @@
       <c r="R210" s="9"/>
     </row>
     <row r="211" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A211" s="52"/>
+      <c r="A211" s="59"/>
       <c r="B211" s="10"/>
       <c r="C211" s="45"/>
       <c r="D211" s="45"/>
@@ -5244,7 +5305,7 @@
       <c r="R211" s="10"/>
     </row>
     <row r="212" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A212" s="52"/>
+      <c r="A212" s="59"/>
       <c r="B212" s="10"/>
       <c r="C212" s="45"/>
       <c r="D212" s="45"/>
@@ -5264,7 +5325,7 @@
       <c r="R212" s="10"/>
     </row>
     <row r="213" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A213" s="52"/>
+      <c r="A213" s="59"/>
       <c r="B213" s="10"/>
       <c r="C213" s="45"/>
       <c r="D213" s="45"/>
@@ -5284,7 +5345,7 @@
       <c r="R213" s="10"/>
     </row>
     <row r="214" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A214" s="52"/>
+      <c r="A214" s="59"/>
       <c r="B214" s="10"/>
       <c r="C214" s="45"/>
       <c r="D214" s="45"/>
@@ -5304,7 +5365,7 @@
       <c r="R214" s="10"/>
     </row>
     <row r="215" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A215" s="52"/>
+      <c r="A215" s="59"/>
       <c r="B215" s="10"/>
       <c r="C215" s="45"/>
       <c r="D215" s="45"/>
@@ -5324,7 +5385,7 @@
       <c r="R215" s="10"/>
     </row>
     <row r="216" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A216" s="52"/>
+      <c r="A216" s="59"/>
       <c r="B216" s="10"/>
       <c r="C216" s="45"/>
       <c r="D216" s="45"/>
@@ -5344,7 +5405,7 @@
       <c r="R216" s="10"/>
     </row>
     <row r="217" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A217" s="52"/>
+      <c r="A217" s="59"/>
       <c r="B217" s="10"/>
       <c r="C217" s="45"/>
       <c r="D217" s="45"/>
@@ -5364,7 +5425,7 @@
       <c r="R217" s="10"/>
     </row>
     <row r="218" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A218" s="52"/>
+      <c r="A218" s="59"/>
       <c r="B218" s="10"/>
       <c r="C218" s="45"/>
       <c r="D218" s="45"/>
@@ -5384,7 +5445,7 @@
       <c r="R218" s="10"/>
     </row>
     <row r="219" spans="1:18" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="52"/>
+      <c r="A219" s="59"/>
       <c r="B219" s="11"/>
       <c r="C219" s="47"/>
       <c r="D219" s="47"/>
@@ -5404,7 +5465,7 @@
       <c r="R219" s="11"/>
     </row>
     <row r="220" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A220" s="51" t="s">
+      <c r="A220" s="52" t="s">
         <v>30</v>
       </c>
       <c r="B220" s="9"/>
@@ -5426,7 +5487,7 @@
       <c r="R220" s="9"/>
     </row>
     <row r="221" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A221" s="52"/>
+      <c r="A221" s="59"/>
       <c r="B221" s="10"/>
       <c r="C221" s="45"/>
       <c r="D221" s="45"/>
@@ -5446,7 +5507,7 @@
       <c r="R221" s="10"/>
     </row>
     <row r="222" spans="1:18" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="52"/>
+      <c r="A222" s="59"/>
       <c r="B222" s="11"/>
       <c r="C222" s="47"/>
       <c r="D222" s="47"/>
@@ -5466,7 +5527,7 @@
       <c r="R222" s="11"/>
     </row>
     <row r="223" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A223" s="51" t="s">
+      <c r="A223" s="52" t="s">
         <v>31</v>
       </c>
       <c r="B223" s="9"/>
@@ -5488,7 +5549,7 @@
       <c r="R223" s="9"/>
     </row>
     <row r="224" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A224" s="52"/>
+      <c r="A224" s="59"/>
       <c r="B224" s="10"/>
       <c r="C224" s="45"/>
       <c r="D224" s="45"/>
@@ -5508,7 +5569,7 @@
       <c r="R224" s="10"/>
     </row>
     <row r="225" spans="1:18" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="52"/>
+      <c r="A225" s="59"/>
       <c r="B225" s="11"/>
       <c r="C225" s="47"/>
       <c r="D225" s="47"/>
@@ -5528,7 +5589,7 @@
       <c r="R225" s="11"/>
     </row>
     <row r="226" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A226" s="51" t="s">
+      <c r="A226" s="52" t="s">
         <v>32</v>
       </c>
       <c r="B226" s="9"/>
@@ -5550,7 +5611,7 @@
       <c r="R226" s="9"/>
     </row>
     <row r="227" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A227" s="52"/>
+      <c r="A227" s="59"/>
       <c r="B227" s="10"/>
       <c r="C227" s="45"/>
       <c r="D227" s="45"/>
@@ -5570,7 +5631,7 @@
       <c r="R227" s="10"/>
     </row>
     <row r="228" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="52"/>
+      <c r="A228" s="59"/>
       <c r="B228" s="11"/>
       <c r="C228" s="47"/>
       <c r="D228" s="47"/>
@@ -5590,7 +5651,7 @@
       <c r="R228" s="11"/>
     </row>
     <row r="229" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A229" s="51" t="s">
+      <c r="A229" s="52" t="s">
         <v>33</v>
       </c>
       <c r="B229" s="9"/>
@@ -5612,7 +5673,7 @@
       <c r="R229" s="9"/>
     </row>
     <row r="230" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A230" s="52"/>
+      <c r="A230" s="59"/>
       <c r="B230" s="10"/>
       <c r="C230" s="45"/>
       <c r="D230" s="45"/>
@@ -5632,7 +5693,7 @@
       <c r="R230" s="10"/>
     </row>
     <row r="231" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="52"/>
+      <c r="A231" s="59"/>
       <c r="B231" s="11"/>
       <c r="C231" s="47"/>
       <c r="D231" s="47"/>
@@ -5652,7 +5713,7 @@
       <c r="R231" s="11"/>
     </row>
     <row r="232" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A232" s="51" t="s">
+      <c r="A232" s="52" t="s">
         <v>34</v>
       </c>
       <c r="B232" s="9"/>
@@ -5674,7 +5735,7 @@
       <c r="R232" s="9"/>
     </row>
     <row r="233" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A233" s="52"/>
+      <c r="A233" s="59"/>
       <c r="B233" s="10"/>
       <c r="C233" s="45"/>
       <c r="D233" s="45"/>
@@ -5694,7 +5755,7 @@
       <c r="R233" s="10"/>
     </row>
     <row r="234" spans="1:18" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="52"/>
+      <c r="A234" s="59"/>
       <c r="B234" s="11"/>
       <c r="C234" s="47"/>
       <c r="D234" s="47"/>
@@ -5714,7 +5775,7 @@
       <c r="R234" s="11"/>
     </row>
     <row r="235" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A235" s="51" t="s">
+      <c r="A235" s="52" t="s">
         <v>35</v>
       </c>
       <c r="B235" s="49"/>
@@ -5736,7 +5797,7 @@
       <c r="R235" s="9"/>
     </row>
     <row r="236" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A236" s="52"/>
+      <c r="A236" s="59"/>
       <c r="B236" s="10"/>
       <c r="C236" s="45"/>
       <c r="D236" s="45"/>
@@ -5756,7 +5817,7 @@
       <c r="R236" s="10"/>
     </row>
     <row r="237" spans="1:18" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="52"/>
+      <c r="A237" s="59"/>
       <c r="B237" s="11"/>
       <c r="C237" s="47"/>
       <c r="D237" s="47"/>
@@ -5776,7 +5837,7 @@
       <c r="R237" s="11"/>
     </row>
     <row r="238" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A238" s="51" t="s">
+      <c r="A238" s="52" t="s">
         <v>36</v>
       </c>
       <c r="B238" s="9"/>
@@ -5798,7 +5859,7 @@
       <c r="R238" s="9"/>
     </row>
     <row r="239" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="52"/>
+      <c r="A239" s="59"/>
       <c r="B239" s="11"/>
       <c r="C239" s="47"/>
       <c r="D239" s="47"/>
@@ -5818,7 +5879,7 @@
       <c r="R239" s="11"/>
     </row>
     <row r="240" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A240" s="51" t="s">
+      <c r="A240" s="52" t="s">
         <v>37</v>
       </c>
       <c r="B240" s="9"/>
@@ -5840,7 +5901,7 @@
       <c r="R240" s="9"/>
     </row>
     <row r="241" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A241" s="52"/>
+      <c r="A241" s="59"/>
       <c r="B241" s="10"/>
       <c r="C241" s="45"/>
       <c r="D241" s="45"/>
@@ -5860,7 +5921,7 @@
       <c r="R241" s="10"/>
     </row>
     <row r="242" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="52"/>
+      <c r="A242" s="59"/>
       <c r="B242" s="11"/>
       <c r="C242" s="47"/>
       <c r="D242" s="47"/>
@@ -5880,7 +5941,7 @@
       <c r="R242" s="11"/>
     </row>
     <row r="243" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A243" s="51" t="s">
+      <c r="A243" s="52" t="s">
         <v>38</v>
       </c>
       <c r="B243" s="9"/>
@@ -5902,7 +5963,7 @@
       <c r="R243" s="9"/>
     </row>
     <row r="244" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A244" s="52"/>
+      <c r="A244" s="59"/>
       <c r="B244" s="10"/>
       <c r="C244" s="45"/>
       <c r="D244" s="45"/>
@@ -5922,7 +5983,7 @@
       <c r="R244" s="10"/>
     </row>
     <row r="245" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="52"/>
+      <c r="A245" s="59"/>
       <c r="B245" s="11"/>
       <c r="C245" s="47"/>
       <c r="D245" s="47"/>
@@ -5942,7 +6003,7 @@
       <c r="R245" s="11"/>
     </row>
     <row r="246" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A246" s="51" t="s">
+      <c r="A246" s="52" t="s">
         <v>36</v>
       </c>
       <c r="B246" s="9"/>
@@ -5964,7 +6025,7 @@
       <c r="R246" s="9"/>
     </row>
     <row r="247" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="52"/>
+      <c r="A247" s="59"/>
       <c r="B247" s="11"/>
       <c r="C247" s="47"/>
       <c r="D247" s="47"/>
@@ -5984,7 +6045,7 @@
       <c r="R247" s="11"/>
     </row>
     <row r="248" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A248" s="51" t="s">
+      <c r="A248" s="52" t="s">
         <v>39</v>
       </c>
       <c r="B248" s="9"/>
@@ -6006,7 +6067,7 @@
       <c r="R248" s="9"/>
     </row>
     <row r="249" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A249" s="52"/>
+      <c r="A249" s="59"/>
       <c r="B249" s="10"/>
       <c r="C249" s="45"/>
       <c r="D249" s="45"/>
@@ -6026,7 +6087,7 @@
       <c r="R249" s="10"/>
     </row>
     <row r="250" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A250" s="52"/>
+      <c r="A250" s="59"/>
       <c r="B250" s="11"/>
       <c r="C250" s="47"/>
       <c r="D250" s="47"/>
@@ -6046,7 +6107,7 @@
       <c r="R250" s="11"/>
     </row>
     <row r="251" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A251" s="51" t="s">
+      <c r="A251" s="52" t="s">
         <v>40</v>
       </c>
       <c r="B251" s="9"/>
@@ -6068,7 +6129,7 @@
       <c r="R251" s="9"/>
     </row>
     <row r="252" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A252" s="52"/>
+      <c r="A252" s="59"/>
       <c r="B252" s="10"/>
       <c r="C252" s="45"/>
       <c r="D252" s="45"/>
@@ -6088,7 +6149,7 @@
       <c r="R252" s="10"/>
     </row>
     <row r="253" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A253" s="52"/>
+      <c r="A253" s="59"/>
       <c r="B253" s="11"/>
       <c r="C253" s="47"/>
       <c r="D253" s="47"/>
@@ -6108,7 +6169,7 @@
       <c r="R253" s="11"/>
     </row>
     <row r="254" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A254" s="51" t="s">
+      <c r="A254" s="52" t="s">
         <v>41</v>
       </c>
       <c r="B254" s="9"/>
@@ -6130,7 +6191,7 @@
       <c r="R254" s="9"/>
     </row>
     <row r="255" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A255" s="52"/>
+      <c r="A255" s="59"/>
       <c r="B255" s="10"/>
       <c r="C255" s="45"/>
       <c r="D255" s="45"/>
@@ -6150,7 +6211,7 @@
       <c r="R255" s="10"/>
     </row>
     <row r="256" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="52"/>
+      <c r="A256" s="59"/>
       <c r="B256" s="11"/>
       <c r="C256" s="47"/>
       <c r="D256" s="47"/>
@@ -6169,8 +6230,8 @@
       <c r="Q256" s="11"/>
       <c r="R256" s="11"/>
     </row>
-    <row r="257" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A257" s="51" t="s">
+    <row r="257" spans="1:1024" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A257" s="52" t="s">
         <v>42</v>
       </c>
       <c r="B257" s="9"/>
@@ -6191,8 +6252,8 @@
       <c r="Q257" s="9"/>
       <c r="R257" s="9"/>
     </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A258" s="52"/>
+    <row r="258" spans="1:1024" x14ac:dyDescent="0.15">
+      <c r="A258" s="59"/>
       <c r="B258" s="10"/>
       <c r="C258" s="45"/>
       <c r="D258" s="45"/>
@@ -6211,8 +6272,8 @@
       <c r="Q258" s="10"/>
       <c r="R258" s="10"/>
     </row>
-    <row r="259" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A259" s="52"/>
+    <row r="259" spans="1:1024" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A259" s="59"/>
       <c r="B259" s="20"/>
       <c r="C259" s="46"/>
       <c r="D259" s="46"/>
@@ -6231,8 +6292,8 @@
       <c r="Q259" s="20"/>
       <c r="R259" s="20"/>
     </row>
-    <row r="260" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A260" s="52"/>
+    <row r="260" spans="1:1024" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A260" s="59"/>
       <c r="B260" s="11"/>
       <c r="C260" s="47"/>
       <c r="D260" s="47"/>
@@ -6251,8 +6312,8 @@
       <c r="Q260" s="11"/>
       <c r="R260" s="11"/>
     </row>
-    <row r="261" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A261" s="51" t="s">
+    <row r="261" spans="1:1024" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A261" s="52" t="s">
         <v>43</v>
       </c>
       <c r="B261" s="9"/>
@@ -6273,8 +6334,8 @@
       <c r="Q261" s="9"/>
       <c r="R261" s="9"/>
     </row>
-    <row r="262" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A262" s="52"/>
+    <row r="262" spans="1:1024" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A262" s="59"/>
       <c r="B262" s="10"/>
       <c r="C262" s="45"/>
       <c r="D262" s="45"/>
@@ -6293,8 +6354,8 @@
       <c r="Q262" s="10"/>
       <c r="R262" s="10"/>
     </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A263" s="52"/>
+    <row r="263" spans="1:1024" x14ac:dyDescent="0.15">
+      <c r="A263" s="59"/>
       <c r="B263" s="20"/>
       <c r="C263" s="46"/>
       <c r="D263" s="46"/>
@@ -6313,8 +6374,8 @@
       <c r="Q263" s="20"/>
       <c r="R263" s="20"/>
     </row>
-    <row r="264" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A264" s="52"/>
+    <row r="264" spans="1:1024" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A264" s="59"/>
       <c r="B264" s="11"/>
       <c r="C264" s="47"/>
       <c r="D264" s="47"/>
@@ -6333,8 +6394,8 @@
       <c r="Q264" s="11"/>
       <c r="R264" s="11"/>
     </row>
-    <row r="265" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A265" s="51" t="s">
+    <row r="265" spans="1:1024" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A265" s="52" t="s">
         <v>44</v>
       </c>
       <c r="B265" s="9"/>
@@ -6355,8 +6416,8 @@
       <c r="Q265" s="9"/>
       <c r="R265" s="9"/>
     </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A266" s="52"/>
+    <row r="266" spans="1:1024" x14ac:dyDescent="0.15">
+      <c r="A266" s="59"/>
       <c r="B266" s="10"/>
       <c r="C266" s="45"/>
       <c r="D266" s="45"/>
@@ -6375,8 +6436,8 @@
       <c r="Q266" s="10"/>
       <c r="R266" s="10"/>
     </row>
-    <row r="267" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A267" s="52"/>
+    <row r="267" spans="1:1024" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A267" s="59"/>
       <c r="B267" s="20"/>
       <c r="C267" s="46"/>
       <c r="D267" s="46"/>
@@ -6395,8 +6456,8 @@
       <c r="Q267" s="20"/>
       <c r="R267" s="20"/>
     </row>
-    <row r="268" spans="1:18" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A268" s="52"/>
+    <row r="268" spans="1:1024" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A268" s="59"/>
       <c r="B268" s="11"/>
       <c r="C268" s="47"/>
       <c r="D268" s="47"/>
@@ -6415,7 +6476,7 @@
       <c r="Q268" s="11"/>
       <c r="R268" s="11"/>
     </row>
-    <row r="269" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A269" s="5" t="s">
         <v>45</v>
       </c>
@@ -6437,92 +6498,1098 @@
       <c r="Q269" s="9"/>
       <c r="R269" s="9"/>
     </row>
-    <row r="270" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A270" s="7" t="s">
+    <row r="270" spans="1:1024" s="51" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A270" s="55"/>
+      <c r="B270" s="56"/>
+      <c r="C270" s="50"/>
+      <c r="D270" s="50"/>
+      <c r="E270" s="50"/>
+      <c r="F270" s="36"/>
+      <c r="G270" s="37"/>
+      <c r="H270" s="35"/>
+      <c r="I270" s="35"/>
+      <c r="J270" s="35"/>
+      <c r="K270" s="35"/>
+      <c r="L270" s="35"/>
+      <c r="M270" s="35"/>
+      <c r="N270" s="35"/>
+      <c r="O270" s="35"/>
+      <c r="P270" s="35"/>
+      <c r="Q270" s="35"/>
+      <c r="R270" s="35"/>
+      <c r="S270" s="22"/>
+      <c r="T270" s="22"/>
+      <c r="U270" s="22"/>
+      <c r="V270" s="22"/>
+      <c r="W270" s="22"/>
+      <c r="X270" s="22"/>
+      <c r="Y270" s="22"/>
+      <c r="Z270" s="22"/>
+      <c r="AA270" s="22"/>
+      <c r="AB270" s="22"/>
+      <c r="AC270" s="22"/>
+      <c r="AD270" s="22"/>
+      <c r="AE270" s="22"/>
+      <c r="AF270" s="22"/>
+      <c r="AG270" s="22"/>
+      <c r="AH270" s="22"/>
+      <c r="AI270" s="22"/>
+      <c r="AJ270" s="22"/>
+      <c r="AK270" s="22"/>
+      <c r="AL270" s="22"/>
+      <c r="AM270" s="22"/>
+      <c r="AN270" s="22"/>
+      <c r="AO270" s="22"/>
+      <c r="AP270" s="22"/>
+      <c r="AQ270" s="22"/>
+      <c r="AR270" s="22"/>
+      <c r="AS270" s="22"/>
+      <c r="AT270" s="22"/>
+      <c r="AU270" s="22"/>
+      <c r="AV270" s="22"/>
+      <c r="AW270" s="22"/>
+      <c r="AX270" s="22"/>
+      <c r="AY270" s="22"/>
+      <c r="AZ270" s="22"/>
+      <c r="BA270" s="22"/>
+      <c r="BB270" s="22"/>
+      <c r="BC270" s="22"/>
+      <c r="BD270" s="22"/>
+      <c r="BE270" s="22"/>
+      <c r="BF270" s="22"/>
+      <c r="BG270" s="22"/>
+      <c r="BH270" s="22"/>
+      <c r="BI270" s="22"/>
+      <c r="BJ270" s="22"/>
+      <c r="BK270" s="22"/>
+      <c r="BL270" s="22"/>
+      <c r="BM270" s="22"/>
+      <c r="BN270" s="22"/>
+      <c r="BO270" s="22"/>
+      <c r="BP270" s="22"/>
+      <c r="BQ270" s="22"/>
+      <c r="BR270" s="22"/>
+      <c r="BS270" s="22"/>
+      <c r="BT270" s="22"/>
+      <c r="BU270" s="22"/>
+      <c r="BV270" s="22"/>
+      <c r="BW270" s="22"/>
+      <c r="BX270" s="22"/>
+      <c r="BY270" s="22"/>
+      <c r="BZ270" s="22"/>
+      <c r="CA270" s="22"/>
+      <c r="CB270" s="22"/>
+      <c r="CC270" s="22"/>
+      <c r="CD270" s="22"/>
+      <c r="CE270" s="22"/>
+      <c r="CF270" s="22"/>
+      <c r="CG270" s="22"/>
+      <c r="CH270" s="22"/>
+      <c r="CI270" s="22"/>
+      <c r="CJ270" s="22"/>
+      <c r="CK270" s="22"/>
+      <c r="CL270" s="22"/>
+      <c r="CM270" s="22"/>
+      <c r="CN270" s="22"/>
+      <c r="CO270" s="22"/>
+      <c r="CP270" s="22"/>
+      <c r="CQ270" s="22"/>
+      <c r="CR270" s="22"/>
+      <c r="CS270" s="22"/>
+      <c r="CT270" s="22"/>
+      <c r="CU270" s="22"/>
+      <c r="CV270" s="22"/>
+      <c r="CW270" s="22"/>
+      <c r="CX270" s="22"/>
+      <c r="CY270" s="22"/>
+      <c r="CZ270" s="22"/>
+      <c r="DA270" s="22"/>
+      <c r="DB270" s="22"/>
+      <c r="DC270" s="22"/>
+      <c r="DD270" s="22"/>
+      <c r="DE270" s="22"/>
+      <c r="DF270" s="22"/>
+      <c r="DG270" s="22"/>
+      <c r="DH270" s="22"/>
+      <c r="DI270" s="22"/>
+      <c r="DJ270" s="22"/>
+      <c r="DK270" s="22"/>
+      <c r="DL270" s="22"/>
+      <c r="DM270" s="22"/>
+      <c r="DN270" s="22"/>
+      <c r="DO270" s="22"/>
+      <c r="DP270" s="22"/>
+      <c r="DQ270" s="22"/>
+      <c r="DR270" s="22"/>
+      <c r="DS270" s="22"/>
+      <c r="DT270" s="22"/>
+      <c r="DU270" s="22"/>
+      <c r="DV270" s="22"/>
+      <c r="DW270" s="22"/>
+      <c r="DX270" s="22"/>
+      <c r="DY270" s="22"/>
+      <c r="DZ270" s="22"/>
+      <c r="EA270" s="22"/>
+      <c r="EB270" s="22"/>
+      <c r="EC270" s="22"/>
+      <c r="ED270" s="22"/>
+      <c r="EE270" s="22"/>
+      <c r="EF270" s="22"/>
+      <c r="EG270" s="22"/>
+      <c r="EH270" s="22"/>
+      <c r="EI270" s="22"/>
+      <c r="EJ270" s="22"/>
+      <c r="EK270" s="22"/>
+      <c r="EL270" s="22"/>
+      <c r="EM270" s="22"/>
+      <c r="EN270" s="22"/>
+      <c r="EO270" s="22"/>
+      <c r="EP270" s="22"/>
+      <c r="EQ270" s="22"/>
+      <c r="ER270" s="22"/>
+      <c r="ES270" s="22"/>
+      <c r="ET270" s="22"/>
+      <c r="EU270" s="22"/>
+      <c r="EV270" s="22"/>
+      <c r="EW270" s="22"/>
+      <c r="EX270" s="22"/>
+      <c r="EY270" s="22"/>
+      <c r="EZ270" s="22"/>
+      <c r="FA270" s="22"/>
+      <c r="FB270" s="22"/>
+      <c r="FC270" s="22"/>
+      <c r="FD270" s="22"/>
+      <c r="FE270" s="22"/>
+      <c r="FF270" s="22"/>
+      <c r="FG270" s="22"/>
+      <c r="FH270" s="22"/>
+      <c r="FI270" s="22"/>
+      <c r="FJ270" s="22"/>
+      <c r="FK270" s="22"/>
+      <c r="FL270" s="22"/>
+      <c r="FM270" s="22"/>
+      <c r="FN270" s="22"/>
+      <c r="FO270" s="22"/>
+      <c r="FP270" s="22"/>
+      <c r="FQ270" s="22"/>
+      <c r="FR270" s="22"/>
+      <c r="FS270" s="22"/>
+      <c r="FT270" s="22"/>
+      <c r="FU270" s="22"/>
+      <c r="FV270" s="22"/>
+      <c r="FW270" s="22"/>
+      <c r="FX270" s="22"/>
+      <c r="FY270" s="22"/>
+      <c r="FZ270" s="22"/>
+      <c r="GA270" s="22"/>
+      <c r="GB270" s="22"/>
+      <c r="GC270" s="22"/>
+      <c r="GD270" s="22"/>
+      <c r="GE270" s="22"/>
+      <c r="GF270" s="22"/>
+      <c r="GG270" s="22"/>
+      <c r="GH270" s="22"/>
+      <c r="GI270" s="22"/>
+      <c r="GJ270" s="22"/>
+      <c r="GK270" s="22"/>
+      <c r="GL270" s="22"/>
+      <c r="GM270" s="22"/>
+      <c r="GN270" s="22"/>
+      <c r="GO270" s="22"/>
+      <c r="GP270" s="22"/>
+      <c r="GQ270" s="22"/>
+      <c r="GR270" s="22"/>
+      <c r="GS270" s="22"/>
+      <c r="GT270" s="22"/>
+      <c r="GU270" s="22"/>
+      <c r="GV270" s="22"/>
+      <c r="GW270" s="22"/>
+      <c r="GX270" s="22"/>
+      <c r="GY270" s="22"/>
+      <c r="GZ270" s="22"/>
+      <c r="HA270" s="22"/>
+      <c r="HB270" s="22"/>
+      <c r="HC270" s="22"/>
+      <c r="HD270" s="22"/>
+      <c r="HE270" s="22"/>
+      <c r="HF270" s="22"/>
+      <c r="HG270" s="22"/>
+      <c r="HH270" s="22"/>
+      <c r="HI270" s="22"/>
+      <c r="HJ270" s="22"/>
+      <c r="HK270" s="22"/>
+      <c r="HL270" s="22"/>
+      <c r="HM270" s="22"/>
+      <c r="HN270" s="22"/>
+      <c r="HO270" s="22"/>
+      <c r="HP270" s="22"/>
+      <c r="HQ270" s="22"/>
+      <c r="HR270" s="22"/>
+      <c r="HS270" s="22"/>
+      <c r="HT270" s="22"/>
+      <c r="HU270" s="22"/>
+      <c r="HV270" s="22"/>
+      <c r="HW270" s="22"/>
+      <c r="HX270" s="22"/>
+      <c r="HY270" s="22"/>
+      <c r="HZ270" s="22"/>
+      <c r="IA270" s="22"/>
+      <c r="IB270" s="22"/>
+      <c r="IC270" s="22"/>
+      <c r="ID270" s="22"/>
+      <c r="IE270" s="22"/>
+      <c r="IF270" s="22"/>
+      <c r="IG270" s="22"/>
+      <c r="IH270" s="22"/>
+      <c r="II270" s="22"/>
+      <c r="IJ270" s="22"/>
+      <c r="IK270" s="22"/>
+      <c r="IL270" s="22"/>
+      <c r="IM270" s="22"/>
+      <c r="IN270" s="22"/>
+      <c r="IO270" s="22"/>
+      <c r="IP270" s="22"/>
+      <c r="IQ270" s="22"/>
+      <c r="IR270" s="22"/>
+      <c r="IS270" s="22"/>
+      <c r="IT270" s="22"/>
+      <c r="IU270" s="22"/>
+      <c r="IV270" s="22"/>
+      <c r="IW270" s="22"/>
+      <c r="IX270" s="22"/>
+      <c r="IY270" s="22"/>
+      <c r="IZ270" s="22"/>
+      <c r="JA270" s="22"/>
+      <c r="JB270" s="22"/>
+      <c r="JC270" s="22"/>
+      <c r="JD270" s="22"/>
+      <c r="JE270" s="22"/>
+      <c r="JF270" s="22"/>
+      <c r="JG270" s="22"/>
+      <c r="JH270" s="22"/>
+      <c r="JI270" s="22"/>
+      <c r="JJ270" s="22"/>
+      <c r="JK270" s="22"/>
+      <c r="JL270" s="22"/>
+      <c r="JM270" s="22"/>
+      <c r="JN270" s="22"/>
+      <c r="JO270" s="22"/>
+      <c r="JP270" s="22"/>
+      <c r="JQ270" s="22"/>
+      <c r="JR270" s="22"/>
+      <c r="JS270" s="22"/>
+      <c r="JT270" s="22"/>
+      <c r="JU270" s="22"/>
+      <c r="JV270" s="22"/>
+      <c r="JW270" s="22"/>
+      <c r="JX270" s="22"/>
+      <c r="JY270" s="22"/>
+      <c r="JZ270" s="22"/>
+      <c r="KA270" s="22"/>
+      <c r="KB270" s="22"/>
+      <c r="KC270" s="22"/>
+      <c r="KD270" s="22"/>
+      <c r="KE270" s="22"/>
+      <c r="KF270" s="22"/>
+      <c r="KG270" s="22"/>
+      <c r="KH270" s="22"/>
+      <c r="KI270" s="22"/>
+      <c r="KJ270" s="22"/>
+      <c r="KK270" s="22"/>
+      <c r="KL270" s="22"/>
+      <c r="KM270" s="22"/>
+      <c r="KN270" s="22"/>
+      <c r="KO270" s="22"/>
+      <c r="KP270" s="22"/>
+      <c r="KQ270" s="22"/>
+      <c r="KR270" s="22"/>
+      <c r="KS270" s="22"/>
+      <c r="KT270" s="22"/>
+      <c r="KU270" s="22"/>
+      <c r="KV270" s="22"/>
+      <c r="KW270" s="22"/>
+      <c r="KX270" s="22"/>
+      <c r="KY270" s="22"/>
+      <c r="KZ270" s="22"/>
+      <c r="LA270" s="22"/>
+      <c r="LB270" s="22"/>
+      <c r="LC270" s="22"/>
+      <c r="LD270" s="22"/>
+      <c r="LE270" s="22"/>
+      <c r="LF270" s="22"/>
+      <c r="LG270" s="22"/>
+      <c r="LH270" s="22"/>
+      <c r="LI270" s="22"/>
+      <c r="LJ270" s="22"/>
+      <c r="LK270" s="22"/>
+      <c r="LL270" s="22"/>
+      <c r="LM270" s="22"/>
+      <c r="LN270" s="22"/>
+      <c r="LO270" s="22"/>
+      <c r="LP270" s="22"/>
+      <c r="LQ270" s="22"/>
+      <c r="LR270" s="22"/>
+      <c r="LS270" s="22"/>
+      <c r="LT270" s="22"/>
+      <c r="LU270" s="22"/>
+      <c r="LV270" s="22"/>
+      <c r="LW270" s="22"/>
+      <c r="LX270" s="22"/>
+      <c r="LY270" s="22"/>
+      <c r="LZ270" s="22"/>
+      <c r="MA270" s="22"/>
+      <c r="MB270" s="22"/>
+      <c r="MC270" s="22"/>
+      <c r="MD270" s="22"/>
+      <c r="ME270" s="22"/>
+      <c r="MF270" s="22"/>
+      <c r="MG270" s="22"/>
+      <c r="MH270" s="22"/>
+      <c r="MI270" s="22"/>
+      <c r="MJ270" s="22"/>
+      <c r="MK270" s="22"/>
+      <c r="ML270" s="22"/>
+      <c r="MM270" s="22"/>
+      <c r="MN270" s="22"/>
+      <c r="MO270" s="22"/>
+      <c r="MP270" s="22"/>
+      <c r="MQ270" s="22"/>
+      <c r="MR270" s="22"/>
+      <c r="MS270" s="22"/>
+      <c r="MT270" s="22"/>
+      <c r="MU270" s="22"/>
+      <c r="MV270" s="22"/>
+      <c r="MW270" s="22"/>
+      <c r="MX270" s="22"/>
+      <c r="MY270" s="22"/>
+      <c r="MZ270" s="22"/>
+      <c r="NA270" s="22"/>
+      <c r="NB270" s="22"/>
+      <c r="NC270" s="22"/>
+      <c r="ND270" s="22"/>
+      <c r="NE270" s="22"/>
+      <c r="NF270" s="22"/>
+      <c r="NG270" s="22"/>
+      <c r="NH270" s="22"/>
+      <c r="NI270" s="22"/>
+      <c r="NJ270" s="22"/>
+      <c r="NK270" s="22"/>
+      <c r="NL270" s="22"/>
+      <c r="NM270" s="22"/>
+      <c r="NN270" s="22"/>
+      <c r="NO270" s="22"/>
+      <c r="NP270" s="22"/>
+      <c r="NQ270" s="22"/>
+      <c r="NR270" s="22"/>
+      <c r="NS270" s="22"/>
+      <c r="NT270" s="22"/>
+      <c r="NU270" s="22"/>
+      <c r="NV270" s="22"/>
+      <c r="NW270" s="22"/>
+      <c r="NX270" s="22"/>
+      <c r="NY270" s="22"/>
+      <c r="NZ270" s="22"/>
+      <c r="OA270" s="22"/>
+      <c r="OB270" s="22"/>
+      <c r="OC270" s="22"/>
+      <c r="OD270" s="22"/>
+      <c r="OE270" s="22"/>
+      <c r="OF270" s="22"/>
+      <c r="OG270" s="22"/>
+      <c r="OH270" s="22"/>
+      <c r="OI270" s="22"/>
+      <c r="OJ270" s="22"/>
+      <c r="OK270" s="22"/>
+      <c r="OL270" s="22"/>
+      <c r="OM270" s="22"/>
+      <c r="ON270" s="22"/>
+      <c r="OO270" s="22"/>
+      <c r="OP270" s="22"/>
+      <c r="OQ270" s="22"/>
+      <c r="OR270" s="22"/>
+      <c r="OS270" s="22"/>
+      <c r="OT270" s="22"/>
+      <c r="OU270" s="22"/>
+      <c r="OV270" s="22"/>
+      <c r="OW270" s="22"/>
+      <c r="OX270" s="22"/>
+      <c r="OY270" s="22"/>
+      <c r="OZ270" s="22"/>
+      <c r="PA270" s="22"/>
+      <c r="PB270" s="22"/>
+      <c r="PC270" s="22"/>
+      <c r="PD270" s="22"/>
+      <c r="PE270" s="22"/>
+      <c r="PF270" s="22"/>
+      <c r="PG270" s="22"/>
+      <c r="PH270" s="22"/>
+      <c r="PI270" s="22"/>
+      <c r="PJ270" s="22"/>
+      <c r="PK270" s="22"/>
+      <c r="PL270" s="22"/>
+      <c r="PM270" s="22"/>
+      <c r="PN270" s="22"/>
+      <c r="PO270" s="22"/>
+      <c r="PP270" s="22"/>
+      <c r="PQ270" s="22"/>
+      <c r="PR270" s="22"/>
+      <c r="PS270" s="22"/>
+      <c r="PT270" s="22"/>
+      <c r="PU270" s="22"/>
+      <c r="PV270" s="22"/>
+      <c r="PW270" s="22"/>
+      <c r="PX270" s="22"/>
+      <c r="PY270" s="22"/>
+      <c r="PZ270" s="22"/>
+      <c r="QA270" s="22"/>
+      <c r="QB270" s="22"/>
+      <c r="QC270" s="22"/>
+      <c r="QD270" s="22"/>
+      <c r="QE270" s="22"/>
+      <c r="QF270" s="22"/>
+      <c r="QG270" s="22"/>
+      <c r="QH270" s="22"/>
+      <c r="QI270" s="22"/>
+      <c r="QJ270" s="22"/>
+      <c r="QK270" s="22"/>
+      <c r="QL270" s="22"/>
+      <c r="QM270" s="22"/>
+      <c r="QN270" s="22"/>
+      <c r="QO270" s="22"/>
+      <c r="QP270" s="22"/>
+      <c r="QQ270" s="22"/>
+      <c r="QR270" s="22"/>
+      <c r="QS270" s="22"/>
+      <c r="QT270" s="22"/>
+      <c r="QU270" s="22"/>
+      <c r="QV270" s="22"/>
+      <c r="QW270" s="22"/>
+      <c r="QX270" s="22"/>
+      <c r="QY270" s="22"/>
+      <c r="QZ270" s="22"/>
+      <c r="RA270" s="22"/>
+      <c r="RB270" s="22"/>
+      <c r="RC270" s="22"/>
+      <c r="RD270" s="22"/>
+      <c r="RE270" s="22"/>
+      <c r="RF270" s="22"/>
+      <c r="RG270" s="22"/>
+      <c r="RH270" s="22"/>
+      <c r="RI270" s="22"/>
+      <c r="RJ270" s="22"/>
+      <c r="RK270" s="22"/>
+      <c r="RL270" s="22"/>
+      <c r="RM270" s="22"/>
+      <c r="RN270" s="22"/>
+      <c r="RO270" s="22"/>
+      <c r="RP270" s="22"/>
+      <c r="RQ270" s="22"/>
+      <c r="RR270" s="22"/>
+      <c r="RS270" s="22"/>
+      <c r="RT270" s="22"/>
+      <c r="RU270" s="22"/>
+      <c r="RV270" s="22"/>
+      <c r="RW270" s="22"/>
+      <c r="RX270" s="22"/>
+      <c r="RY270" s="22"/>
+      <c r="RZ270" s="22"/>
+      <c r="SA270" s="22"/>
+      <c r="SB270" s="22"/>
+      <c r="SC270" s="22"/>
+      <c r="SD270" s="22"/>
+      <c r="SE270" s="22"/>
+      <c r="SF270" s="22"/>
+      <c r="SG270" s="22"/>
+      <c r="SH270" s="22"/>
+      <c r="SI270" s="22"/>
+      <c r="SJ270" s="22"/>
+      <c r="SK270" s="22"/>
+      <c r="SL270" s="22"/>
+      <c r="SM270" s="22"/>
+      <c r="SN270" s="22"/>
+      <c r="SO270" s="22"/>
+      <c r="SP270" s="22"/>
+      <c r="SQ270" s="22"/>
+      <c r="SR270" s="22"/>
+      <c r="SS270" s="22"/>
+      <c r="ST270" s="22"/>
+      <c r="SU270" s="22"/>
+      <c r="SV270" s="22"/>
+      <c r="SW270" s="22"/>
+      <c r="SX270" s="22"/>
+      <c r="SY270" s="22"/>
+      <c r="SZ270" s="22"/>
+      <c r="TA270" s="22"/>
+      <c r="TB270" s="22"/>
+      <c r="TC270" s="22"/>
+      <c r="TD270" s="22"/>
+      <c r="TE270" s="22"/>
+      <c r="TF270" s="22"/>
+      <c r="TG270" s="22"/>
+      <c r="TH270" s="22"/>
+      <c r="TI270" s="22"/>
+      <c r="TJ270" s="22"/>
+      <c r="TK270" s="22"/>
+      <c r="TL270" s="22"/>
+      <c r="TM270" s="22"/>
+      <c r="TN270" s="22"/>
+      <c r="TO270" s="22"/>
+      <c r="TP270" s="22"/>
+      <c r="TQ270" s="22"/>
+      <c r="TR270" s="22"/>
+      <c r="TS270" s="22"/>
+      <c r="TT270" s="22"/>
+      <c r="TU270" s="22"/>
+      <c r="TV270" s="22"/>
+      <c r="TW270" s="22"/>
+      <c r="TX270" s="22"/>
+      <c r="TY270" s="22"/>
+      <c r="TZ270" s="22"/>
+      <c r="UA270" s="22"/>
+      <c r="UB270" s="22"/>
+      <c r="UC270" s="22"/>
+      <c r="UD270" s="22"/>
+      <c r="UE270" s="22"/>
+      <c r="UF270" s="22"/>
+      <c r="UG270" s="22"/>
+      <c r="UH270" s="22"/>
+      <c r="UI270" s="22"/>
+      <c r="UJ270" s="22"/>
+      <c r="UK270" s="22"/>
+      <c r="UL270" s="22"/>
+      <c r="UM270" s="22"/>
+      <c r="UN270" s="22"/>
+      <c r="UO270" s="22"/>
+      <c r="UP270" s="22"/>
+      <c r="UQ270" s="22"/>
+      <c r="UR270" s="22"/>
+      <c r="US270" s="22"/>
+      <c r="UT270" s="22"/>
+      <c r="UU270" s="22"/>
+      <c r="UV270" s="22"/>
+      <c r="UW270" s="22"/>
+      <c r="UX270" s="22"/>
+      <c r="UY270" s="22"/>
+      <c r="UZ270" s="22"/>
+      <c r="VA270" s="22"/>
+      <c r="VB270" s="22"/>
+      <c r="VC270" s="22"/>
+      <c r="VD270" s="22"/>
+      <c r="VE270" s="22"/>
+      <c r="VF270" s="22"/>
+      <c r="VG270" s="22"/>
+      <c r="VH270" s="22"/>
+      <c r="VI270" s="22"/>
+      <c r="VJ270" s="22"/>
+      <c r="VK270" s="22"/>
+      <c r="VL270" s="22"/>
+      <c r="VM270" s="22"/>
+      <c r="VN270" s="22"/>
+      <c r="VO270" s="22"/>
+      <c r="VP270" s="22"/>
+      <c r="VQ270" s="22"/>
+      <c r="VR270" s="22"/>
+      <c r="VS270" s="22"/>
+      <c r="VT270" s="22"/>
+      <c r="VU270" s="22"/>
+      <c r="VV270" s="22"/>
+      <c r="VW270" s="22"/>
+      <c r="VX270" s="22"/>
+      <c r="VY270" s="22"/>
+      <c r="VZ270" s="22"/>
+      <c r="WA270" s="22"/>
+      <c r="WB270" s="22"/>
+      <c r="WC270" s="22"/>
+      <c r="WD270" s="22"/>
+      <c r="WE270" s="22"/>
+      <c r="WF270" s="22"/>
+      <c r="WG270" s="22"/>
+      <c r="WH270" s="22"/>
+      <c r="WI270" s="22"/>
+      <c r="WJ270" s="22"/>
+      <c r="WK270" s="22"/>
+      <c r="WL270" s="22"/>
+      <c r="WM270" s="22"/>
+      <c r="WN270" s="22"/>
+      <c r="WO270" s="22"/>
+      <c r="WP270" s="22"/>
+      <c r="WQ270" s="22"/>
+      <c r="WR270" s="22"/>
+      <c r="WS270" s="22"/>
+      <c r="WT270" s="22"/>
+      <c r="WU270" s="22"/>
+      <c r="WV270" s="22"/>
+      <c r="WW270" s="22"/>
+      <c r="WX270" s="22"/>
+      <c r="WY270" s="22"/>
+      <c r="WZ270" s="22"/>
+      <c r="XA270" s="22"/>
+      <c r="XB270" s="22"/>
+      <c r="XC270" s="22"/>
+      <c r="XD270" s="22"/>
+      <c r="XE270" s="22"/>
+      <c r="XF270" s="22"/>
+      <c r="XG270" s="22"/>
+      <c r="XH270" s="22"/>
+      <c r="XI270" s="22"/>
+      <c r="XJ270" s="22"/>
+      <c r="XK270" s="22"/>
+      <c r="XL270" s="22"/>
+      <c r="XM270" s="22"/>
+      <c r="XN270" s="22"/>
+      <c r="XO270" s="22"/>
+      <c r="XP270" s="22"/>
+      <c r="XQ270" s="22"/>
+      <c r="XR270" s="22"/>
+      <c r="XS270" s="22"/>
+      <c r="XT270" s="22"/>
+      <c r="XU270" s="22"/>
+      <c r="XV270" s="22"/>
+      <c r="XW270" s="22"/>
+      <c r="XX270" s="22"/>
+      <c r="XY270" s="22"/>
+      <c r="XZ270" s="22"/>
+      <c r="YA270" s="22"/>
+      <c r="YB270" s="22"/>
+      <c r="YC270" s="22"/>
+      <c r="YD270" s="22"/>
+      <c r="YE270" s="22"/>
+      <c r="YF270" s="22"/>
+      <c r="YG270" s="22"/>
+      <c r="YH270" s="22"/>
+      <c r="YI270" s="22"/>
+      <c r="YJ270" s="22"/>
+      <c r="YK270" s="22"/>
+      <c r="YL270" s="22"/>
+      <c r="YM270" s="22"/>
+      <c r="YN270" s="22"/>
+      <c r="YO270" s="22"/>
+      <c r="YP270" s="22"/>
+      <c r="YQ270" s="22"/>
+      <c r="YR270" s="22"/>
+      <c r="YS270" s="22"/>
+      <c r="YT270" s="22"/>
+      <c r="YU270" s="22"/>
+      <c r="YV270" s="22"/>
+      <c r="YW270" s="22"/>
+      <c r="YX270" s="22"/>
+      <c r="YY270" s="22"/>
+      <c r="YZ270" s="22"/>
+      <c r="ZA270" s="22"/>
+      <c r="ZB270" s="22"/>
+      <c r="ZC270" s="22"/>
+      <c r="ZD270" s="22"/>
+      <c r="ZE270" s="22"/>
+      <c r="ZF270" s="22"/>
+      <c r="ZG270" s="22"/>
+      <c r="ZH270" s="22"/>
+      <c r="ZI270" s="22"/>
+      <c r="ZJ270" s="22"/>
+      <c r="ZK270" s="22"/>
+      <c r="ZL270" s="22"/>
+      <c r="ZM270" s="22"/>
+      <c r="ZN270" s="22"/>
+      <c r="ZO270" s="22"/>
+      <c r="ZP270" s="22"/>
+      <c r="ZQ270" s="22"/>
+      <c r="ZR270" s="22"/>
+      <c r="ZS270" s="22"/>
+      <c r="ZT270" s="22"/>
+      <c r="ZU270" s="22"/>
+      <c r="ZV270" s="22"/>
+      <c r="ZW270" s="22"/>
+      <c r="ZX270" s="22"/>
+      <c r="ZY270" s="22"/>
+      <c r="ZZ270" s="22"/>
+      <c r="AAA270" s="22"/>
+      <c r="AAB270" s="22"/>
+      <c r="AAC270" s="22"/>
+      <c r="AAD270" s="22"/>
+      <c r="AAE270" s="22"/>
+      <c r="AAF270" s="22"/>
+      <c r="AAG270" s="22"/>
+      <c r="AAH270" s="22"/>
+      <c r="AAI270" s="22"/>
+      <c r="AAJ270" s="22"/>
+      <c r="AAK270" s="22"/>
+      <c r="AAL270" s="22"/>
+      <c r="AAM270" s="22"/>
+      <c r="AAN270" s="22"/>
+      <c r="AAO270" s="22"/>
+      <c r="AAP270" s="22"/>
+      <c r="AAQ270" s="22"/>
+      <c r="AAR270" s="22"/>
+      <c r="AAS270" s="22"/>
+      <c r="AAT270" s="22"/>
+      <c r="AAU270" s="22"/>
+      <c r="AAV270" s="22"/>
+      <c r="AAW270" s="22"/>
+      <c r="AAX270" s="22"/>
+      <c r="AAY270" s="22"/>
+      <c r="AAZ270" s="22"/>
+      <c r="ABA270" s="22"/>
+      <c r="ABB270" s="22"/>
+      <c r="ABC270" s="22"/>
+      <c r="ABD270" s="22"/>
+      <c r="ABE270" s="22"/>
+      <c r="ABF270" s="22"/>
+      <c r="ABG270" s="22"/>
+      <c r="ABH270" s="22"/>
+      <c r="ABI270" s="22"/>
+      <c r="ABJ270" s="22"/>
+      <c r="ABK270" s="22"/>
+      <c r="ABL270" s="22"/>
+      <c r="ABM270" s="22"/>
+      <c r="ABN270" s="22"/>
+      <c r="ABO270" s="22"/>
+      <c r="ABP270" s="22"/>
+      <c r="ABQ270" s="22"/>
+      <c r="ABR270" s="22"/>
+      <c r="ABS270" s="22"/>
+      <c r="ABT270" s="22"/>
+      <c r="ABU270" s="22"/>
+      <c r="ABV270" s="22"/>
+      <c r="ABW270" s="22"/>
+      <c r="ABX270" s="22"/>
+      <c r="ABY270" s="22"/>
+      <c r="ABZ270" s="22"/>
+      <c r="ACA270" s="22"/>
+      <c r="ACB270" s="22"/>
+      <c r="ACC270" s="22"/>
+      <c r="ACD270" s="22"/>
+      <c r="ACE270" s="22"/>
+      <c r="ACF270" s="22"/>
+      <c r="ACG270" s="22"/>
+      <c r="ACH270" s="22"/>
+      <c r="ACI270" s="22"/>
+      <c r="ACJ270" s="22"/>
+      <c r="ACK270" s="22"/>
+      <c r="ACL270" s="22"/>
+      <c r="ACM270" s="22"/>
+      <c r="ACN270" s="22"/>
+      <c r="ACO270" s="22"/>
+      <c r="ACP270" s="22"/>
+      <c r="ACQ270" s="22"/>
+      <c r="ACR270" s="22"/>
+      <c r="ACS270" s="22"/>
+      <c r="ACT270" s="22"/>
+      <c r="ACU270" s="22"/>
+      <c r="ACV270" s="22"/>
+      <c r="ACW270" s="22"/>
+      <c r="ACX270" s="22"/>
+      <c r="ACY270" s="22"/>
+      <c r="ACZ270" s="22"/>
+      <c r="ADA270" s="22"/>
+      <c r="ADB270" s="22"/>
+      <c r="ADC270" s="22"/>
+      <c r="ADD270" s="22"/>
+      <c r="ADE270" s="22"/>
+      <c r="ADF270" s="22"/>
+      <c r="ADG270" s="22"/>
+      <c r="ADH270" s="22"/>
+      <c r="ADI270" s="22"/>
+      <c r="ADJ270" s="22"/>
+      <c r="ADK270" s="22"/>
+      <c r="ADL270" s="22"/>
+      <c r="ADM270" s="22"/>
+      <c r="ADN270" s="22"/>
+      <c r="ADO270" s="22"/>
+      <c r="ADP270" s="22"/>
+      <c r="ADQ270" s="22"/>
+      <c r="ADR270" s="22"/>
+      <c r="ADS270" s="22"/>
+      <c r="ADT270" s="22"/>
+      <c r="ADU270" s="22"/>
+      <c r="ADV270" s="22"/>
+      <c r="ADW270" s="22"/>
+      <c r="ADX270" s="22"/>
+      <c r="ADY270" s="22"/>
+      <c r="ADZ270" s="22"/>
+      <c r="AEA270" s="22"/>
+      <c r="AEB270" s="22"/>
+      <c r="AEC270" s="22"/>
+      <c r="AED270" s="22"/>
+      <c r="AEE270" s="22"/>
+      <c r="AEF270" s="22"/>
+      <c r="AEG270" s="22"/>
+      <c r="AEH270" s="22"/>
+      <c r="AEI270" s="22"/>
+      <c r="AEJ270" s="22"/>
+      <c r="AEK270" s="22"/>
+      <c r="AEL270" s="22"/>
+      <c r="AEM270" s="22"/>
+      <c r="AEN270" s="22"/>
+      <c r="AEO270" s="22"/>
+      <c r="AEP270" s="22"/>
+      <c r="AEQ270" s="22"/>
+      <c r="AER270" s="22"/>
+      <c r="AES270" s="22"/>
+      <c r="AET270" s="22"/>
+      <c r="AEU270" s="22"/>
+      <c r="AEV270" s="22"/>
+      <c r="AEW270" s="22"/>
+      <c r="AEX270" s="22"/>
+      <c r="AEY270" s="22"/>
+      <c r="AEZ270" s="22"/>
+      <c r="AFA270" s="22"/>
+      <c r="AFB270" s="22"/>
+      <c r="AFC270" s="22"/>
+      <c r="AFD270" s="22"/>
+      <c r="AFE270" s="22"/>
+      <c r="AFF270" s="22"/>
+      <c r="AFG270" s="22"/>
+      <c r="AFH270" s="22"/>
+      <c r="AFI270" s="22"/>
+      <c r="AFJ270" s="22"/>
+      <c r="AFK270" s="22"/>
+      <c r="AFL270" s="22"/>
+      <c r="AFM270" s="22"/>
+      <c r="AFN270" s="22"/>
+      <c r="AFO270" s="22"/>
+      <c r="AFP270" s="22"/>
+      <c r="AFQ270" s="22"/>
+      <c r="AFR270" s="22"/>
+      <c r="AFS270" s="22"/>
+      <c r="AFT270" s="22"/>
+      <c r="AFU270" s="22"/>
+      <c r="AFV270" s="22"/>
+      <c r="AFW270" s="22"/>
+      <c r="AFX270" s="22"/>
+      <c r="AFY270" s="22"/>
+      <c r="AFZ270" s="22"/>
+      <c r="AGA270" s="22"/>
+      <c r="AGB270" s="22"/>
+      <c r="AGC270" s="22"/>
+      <c r="AGD270" s="22"/>
+      <c r="AGE270" s="22"/>
+      <c r="AGF270" s="22"/>
+      <c r="AGG270" s="22"/>
+      <c r="AGH270" s="22"/>
+      <c r="AGI270" s="22"/>
+      <c r="AGJ270" s="22"/>
+      <c r="AGK270" s="22"/>
+      <c r="AGL270" s="22"/>
+      <c r="AGM270" s="22"/>
+      <c r="AGN270" s="22"/>
+      <c r="AGO270" s="22"/>
+      <c r="AGP270" s="22"/>
+      <c r="AGQ270" s="22"/>
+      <c r="AGR270" s="22"/>
+      <c r="AGS270" s="22"/>
+      <c r="AGT270" s="22"/>
+      <c r="AGU270" s="22"/>
+      <c r="AGV270" s="22"/>
+      <c r="AGW270" s="22"/>
+      <c r="AGX270" s="22"/>
+      <c r="AGY270" s="22"/>
+      <c r="AGZ270" s="22"/>
+      <c r="AHA270" s="22"/>
+      <c r="AHB270" s="22"/>
+      <c r="AHC270" s="22"/>
+      <c r="AHD270" s="22"/>
+      <c r="AHE270" s="22"/>
+      <c r="AHF270" s="22"/>
+      <c r="AHG270" s="22"/>
+      <c r="AHH270" s="22"/>
+      <c r="AHI270" s="22"/>
+      <c r="AHJ270" s="22"/>
+      <c r="AHK270" s="22"/>
+      <c r="AHL270" s="22"/>
+      <c r="AHM270" s="22"/>
+      <c r="AHN270" s="22"/>
+      <c r="AHO270" s="22"/>
+      <c r="AHP270" s="22"/>
+      <c r="AHQ270" s="22"/>
+      <c r="AHR270" s="22"/>
+      <c r="AHS270" s="22"/>
+      <c r="AHT270" s="22"/>
+      <c r="AHU270" s="22"/>
+      <c r="AHV270" s="22"/>
+      <c r="AHW270" s="22"/>
+      <c r="AHX270" s="22"/>
+      <c r="AHY270" s="22"/>
+      <c r="AHZ270" s="22"/>
+      <c r="AIA270" s="22"/>
+      <c r="AIB270" s="22"/>
+      <c r="AIC270" s="22"/>
+      <c r="AID270" s="22"/>
+      <c r="AIE270" s="22"/>
+      <c r="AIF270" s="22"/>
+      <c r="AIG270" s="22"/>
+      <c r="AIH270" s="22"/>
+      <c r="AII270" s="22"/>
+      <c r="AIJ270" s="22"/>
+      <c r="AIK270" s="22"/>
+      <c r="AIL270" s="22"/>
+      <c r="AIM270" s="22"/>
+      <c r="AIN270" s="22"/>
+      <c r="AIO270" s="22"/>
+      <c r="AIP270" s="22"/>
+      <c r="AIQ270" s="22"/>
+      <c r="AIR270" s="22"/>
+      <c r="AIS270" s="22"/>
+      <c r="AIT270" s="22"/>
+      <c r="AIU270" s="22"/>
+      <c r="AIV270" s="22"/>
+      <c r="AIW270" s="22"/>
+      <c r="AIX270" s="22"/>
+      <c r="AIY270" s="22"/>
+      <c r="AIZ270" s="22"/>
+      <c r="AJA270" s="22"/>
+      <c r="AJB270" s="22"/>
+      <c r="AJC270" s="22"/>
+      <c r="AJD270" s="22"/>
+      <c r="AJE270" s="22"/>
+      <c r="AJF270" s="22"/>
+      <c r="AJG270" s="22"/>
+      <c r="AJH270" s="22"/>
+      <c r="AJI270" s="22"/>
+      <c r="AJJ270" s="22"/>
+      <c r="AJK270" s="22"/>
+      <c r="AJL270" s="22"/>
+      <c r="AJM270" s="22"/>
+      <c r="AJN270" s="22"/>
+      <c r="AJO270" s="22"/>
+      <c r="AJP270" s="22"/>
+      <c r="AJQ270" s="22"/>
+      <c r="AJR270" s="22"/>
+      <c r="AJS270" s="22"/>
+      <c r="AJT270" s="22"/>
+      <c r="AJU270" s="22"/>
+      <c r="AJV270" s="22"/>
+      <c r="AJW270" s="22"/>
+      <c r="AJX270" s="22"/>
+      <c r="AJY270" s="22"/>
+      <c r="AJZ270" s="22"/>
+      <c r="AKA270" s="22"/>
+      <c r="AKB270" s="22"/>
+      <c r="AKC270" s="22"/>
+      <c r="AKD270" s="22"/>
+      <c r="AKE270" s="22"/>
+      <c r="AKF270" s="22"/>
+      <c r="AKG270" s="22"/>
+      <c r="AKH270" s="22"/>
+      <c r="AKI270" s="22"/>
+      <c r="AKJ270" s="22"/>
+      <c r="AKK270" s="22"/>
+      <c r="AKL270" s="22"/>
+      <c r="AKM270" s="22"/>
+      <c r="AKN270" s="22"/>
+      <c r="AKO270" s="22"/>
+      <c r="AKP270" s="22"/>
+      <c r="AKQ270" s="22"/>
+      <c r="AKR270" s="22"/>
+      <c r="AKS270" s="22"/>
+      <c r="AKT270" s="22"/>
+      <c r="AKU270" s="22"/>
+      <c r="AKV270" s="22"/>
+      <c r="AKW270" s="22"/>
+      <c r="AKX270" s="22"/>
+      <c r="AKY270" s="22"/>
+      <c r="AKZ270" s="22"/>
+      <c r="ALA270" s="22"/>
+      <c r="ALB270" s="22"/>
+      <c r="ALC270" s="22"/>
+      <c r="ALD270" s="22"/>
+      <c r="ALE270" s="22"/>
+      <c r="ALF270" s="22"/>
+      <c r="ALG270" s="22"/>
+      <c r="ALH270" s="22"/>
+      <c r="ALI270" s="22"/>
+      <c r="ALJ270" s="22"/>
+      <c r="ALK270" s="22"/>
+      <c r="ALL270" s="22"/>
+      <c r="ALM270" s="22"/>
+      <c r="ALN270" s="22"/>
+      <c r="ALO270" s="22"/>
+      <c r="ALP270" s="22"/>
+      <c r="ALQ270" s="22"/>
+      <c r="ALR270" s="22"/>
+      <c r="ALS270" s="22"/>
+      <c r="ALT270" s="22"/>
+      <c r="ALU270" s="22"/>
+      <c r="ALV270" s="22"/>
+      <c r="ALW270" s="22"/>
+      <c r="ALX270" s="22"/>
+      <c r="ALY270" s="22"/>
+      <c r="ALZ270" s="22"/>
+      <c r="AMA270" s="22"/>
+      <c r="AMB270" s="22"/>
+      <c r="AMC270" s="22"/>
+      <c r="AMD270" s="22"/>
+      <c r="AME270" s="22"/>
+      <c r="AMF270" s="22"/>
+      <c r="AMG270" s="22"/>
+      <c r="AMH270" s="22"/>
+      <c r="AMI270" s="22"/>
+      <c r="AMJ270" s="22"/>
+    </row>
+    <row r="271" spans="1:1024" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A271" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B270" s="8"/>
-      <c r="C270" s="45"/>
-      <c r="D270" s="45"/>
-      <c r="E270" s="45"/>
-      <c r="F270" s="15"/>
-      <c r="G270" s="27"/>
-      <c r="H270" s="10"/>
-      <c r="I270" s="10"/>
-      <c r="J270" s="10"/>
-      <c r="K270" s="10"/>
-      <c r="L270" s="10"/>
-      <c r="M270" s="10"/>
-      <c r="N270" s="10"/>
-      <c r="O270" s="10"/>
-      <c r="P270" s="10"/>
-      <c r="Q270" s="10"/>
-      <c r="R270" s="10"/>
-    </row>
-    <row r="271" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A271" s="51" t="s">
+      <c r="B271" s="8"/>
+      <c r="C271" s="45"/>
+      <c r="D271" s="45"/>
+      <c r="E271" s="45"/>
+      <c r="F271" s="15"/>
+      <c r="G271" s="27"/>
+      <c r="H271" s="10"/>
+      <c r="I271" s="10"/>
+      <c r="J271" s="10"/>
+      <c r="K271" s="10"/>
+      <c r="L271" s="10"/>
+      <c r="M271" s="10"/>
+      <c r="N271" s="10"/>
+      <c r="O271" s="10"/>
+      <c r="P271" s="10"/>
+      <c r="Q271" s="10"/>
+      <c r="R271" s="10"/>
+    </row>
+    <row r="272" spans="1:1024" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A272" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="B271" s="9"/>
-      <c r="C271" s="44"/>
-      <c r="D271" s="44"/>
-      <c r="E271" s="44"/>
-      <c r="F271" s="14"/>
-      <c r="G271" s="25"/>
-      <c r="H271" s="9"/>
-      <c r="I271" s="9"/>
-      <c r="J271" s="9"/>
-      <c r="K271" s="9"/>
-      <c r="L271" s="9"/>
-      <c r="M271" s="9"/>
-      <c r="N271" s="9"/>
-      <c r="O271" s="9"/>
-      <c r="P271" s="9"/>
-      <c r="Q271" s="9"/>
-      <c r="R271" s="9"/>
-    </row>
-    <row r="272" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A272" s="52"/>
-      <c r="B272" s="35"/>
-      <c r="C272" s="50"/>
-      <c r="D272" s="50"/>
-      <c r="E272" s="50"/>
-      <c r="F272" s="36"/>
-      <c r="G272" s="37"/>
-      <c r="H272" s="35"/>
-      <c r="I272" s="35"/>
-      <c r="J272" s="35"/>
-      <c r="K272" s="35"/>
-      <c r="L272" s="35"/>
-      <c r="M272" s="35"/>
-      <c r="N272" s="35"/>
-      <c r="O272" s="35"/>
-      <c r="P272" s="35"/>
-      <c r="Q272" s="35"/>
-      <c r="R272" s="35"/>
+      <c r="B272" s="9"/>
+      <c r="C272" s="44"/>
+      <c r="D272" s="44"/>
+      <c r="E272" s="44"/>
+      <c r="F272" s="14"/>
+      <c r="G272" s="25"/>
+      <c r="H272" s="9"/>
+      <c r="I272" s="9"/>
+      <c r="J272" s="9"/>
+      <c r="K272" s="9"/>
+      <c r="L272" s="9"/>
+      <c r="M272" s="9"/>
+      <c r="N272" s="9"/>
+      <c r="O272" s="9"/>
+      <c r="P272" s="9"/>
+      <c r="Q272" s="9"/>
+      <c r="R272" s="9"/>
     </row>
     <row r="273" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A273" s="52"/>
-      <c r="B273" s="10"/>
-      <c r="C273" s="45"/>
-      <c r="D273" s="45"/>
-      <c r="E273" s="45"/>
-      <c r="F273" s="15"/>
-      <c r="G273" s="27"/>
-      <c r="H273" s="10"/>
-      <c r="I273" s="10"/>
-      <c r="J273" s="10"/>
-      <c r="K273" s="10"/>
-      <c r="L273" s="10"/>
-      <c r="M273" s="10"/>
-      <c r="N273" s="10"/>
-      <c r="O273" s="10"/>
-      <c r="P273" s="10"/>
-      <c r="Q273" s="10"/>
-      <c r="R273" s="10"/>
+      <c r="A273" s="59"/>
+      <c r="B273" s="35"/>
+      <c r="C273" s="50"/>
+      <c r="D273" s="50"/>
+      <c r="E273" s="50"/>
+      <c r="F273" s="36"/>
+      <c r="G273" s="37"/>
+      <c r="H273" s="35"/>
+      <c r="I273" s="35"/>
+      <c r="J273" s="35"/>
+      <c r="K273" s="35"/>
+      <c r="L273" s="35"/>
+      <c r="M273" s="35"/>
+      <c r="N273" s="35"/>
+      <c r="O273" s="35"/>
+      <c r="P273" s="35"/>
+      <c r="Q273" s="35"/>
+      <c r="R273" s="35"/>
     </row>
     <row r="274" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A274" s="52"/>
+      <c r="A274" s="59"/>
       <c r="B274" s="10"/>
       <c r="C274" s="45"/>
       <c r="D274" s="45"/>
@@ -6542,7 +7609,7 @@
       <c r="R274" s="10"/>
     </row>
     <row r="275" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A275" s="52"/>
+      <c r="A275" s="59"/>
       <c r="B275" s="10"/>
       <c r="C275" s="45"/>
       <c r="D275" s="45"/>
@@ -6562,7 +7629,7 @@
       <c r="R275" s="10"/>
     </row>
     <row r="276" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A276" s="52"/>
+      <c r="A276" s="59"/>
       <c r="B276" s="10"/>
       <c r="C276" s="45"/>
       <c r="D276" s="45"/>
@@ -6581,8 +7648,8 @@
       <c r="Q276" s="10"/>
       <c r="R276" s="10"/>
     </row>
-    <row r="277" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A277" s="52"/>
+    <row r="277" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A277" s="59"/>
       <c r="B277" s="10"/>
       <c r="C277" s="45"/>
       <c r="D277" s="45"/>
@@ -6601,112 +7668,112 @@
       <c r="Q277" s="10"/>
       <c r="R277" s="10"/>
     </row>
-    <row r="278" spans="1:18" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A278" s="52"/>
-      <c r="B278" s="11"/>
-      <c r="C278" s="47"/>
-      <c r="D278" s="47"/>
-      <c r="E278" s="47"/>
-      <c r="F278" s="16"/>
-      <c r="G278" s="30"/>
-      <c r="H278" s="11"/>
-      <c r="I278" s="11"/>
-      <c r="J278" s="11"/>
-      <c r="K278" s="11"/>
-      <c r="L278" s="11"/>
-      <c r="M278" s="11"/>
-      <c r="N278" s="11"/>
-      <c r="O278" s="11"/>
-      <c r="P278" s="11"/>
-      <c r="Q278" s="11"/>
-      <c r="R278" s="11"/>
-    </row>
-    <row r="279" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A279" s="5"/>
-      <c r="B279" s="12"/>
-      <c r="C279" s="44"/>
-      <c r="D279" s="44"/>
-      <c r="E279" s="44"/>
-      <c r="F279" s="14"/>
-      <c r="G279" s="25"/>
-      <c r="H279" s="9"/>
-      <c r="I279" s="9"/>
-      <c r="J279" s="9"/>
-      <c r="K279" s="9"/>
-      <c r="L279" s="9"/>
-      <c r="M279" s="9"/>
-      <c r="N279" s="9"/>
-      <c r="O279" s="9"/>
-      <c r="P279" s="9"/>
-      <c r="Q279" s="9"/>
-      <c r="R279" s="9"/>
-    </row>
-    <row r="280" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A280" s="7" t="s">
+    <row r="278" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A278" s="59"/>
+      <c r="B278" s="10"/>
+      <c r="C278" s="45"/>
+      <c r="D278" s="45"/>
+      <c r="E278" s="45"/>
+      <c r="F278" s="15"/>
+      <c r="G278" s="27"/>
+      <c r="H278" s="10"/>
+      <c r="I278" s="10"/>
+      <c r="J278" s="10"/>
+      <c r="K278" s="10"/>
+      <c r="L278" s="10"/>
+      <c r="M278" s="10"/>
+      <c r="N278" s="10"/>
+      <c r="O278" s="10"/>
+      <c r="P278" s="10"/>
+      <c r="Q278" s="10"/>
+      <c r="R278" s="10"/>
+    </row>
+    <row r="279" spans="1:18" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A279" s="59"/>
+      <c r="B279" s="11"/>
+      <c r="C279" s="47"/>
+      <c r="D279" s="47"/>
+      <c r="E279" s="47"/>
+      <c r="F279" s="16"/>
+      <c r="G279" s="30"/>
+      <c r="H279" s="11"/>
+      <c r="I279" s="11"/>
+      <c r="J279" s="11"/>
+      <c r="K279" s="11"/>
+      <c r="L279" s="11"/>
+      <c r="M279" s="11"/>
+      <c r="N279" s="11"/>
+      <c r="O279" s="11"/>
+      <c r="P279" s="11"/>
+      <c r="Q279" s="11"/>
+      <c r="R279" s="11"/>
+    </row>
+    <row r="280" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A280" s="5"/>
+      <c r="B280" s="12"/>
+      <c r="C280" s="44"/>
+      <c r="D280" s="44"/>
+      <c r="E280" s="44"/>
+      <c r="F280" s="14"/>
+      <c r="G280" s="25"/>
+      <c r="H280" s="9"/>
+      <c r="I280" s="9"/>
+      <c r="J280" s="9"/>
+      <c r="K280" s="9"/>
+      <c r="L280" s="9"/>
+      <c r="M280" s="9"/>
+      <c r="N280" s="9"/>
+      <c r="O280" s="9"/>
+      <c r="P280" s="9"/>
+      <c r="Q280" s="9"/>
+      <c r="R280" s="9"/>
+    </row>
+    <row r="281" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A281" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B280" s="13"/>
-      <c r="C280" s="45"/>
-      <c r="D280" s="45"/>
-      <c r="E280" s="45"/>
-      <c r="F280" s="15"/>
-      <c r="G280" s="27"/>
-      <c r="H280" s="10"/>
-      <c r="I280" s="10"/>
-      <c r="J280" s="10"/>
-      <c r="K280" s="10"/>
-      <c r="L280" s="10"/>
-      <c r="M280" s="10"/>
-      <c r="N280" s="10"/>
-      <c r="O280" s="10"/>
-      <c r="P280" s="10"/>
-      <c r="Q280" s="10"/>
-      <c r="R280" s="10"/>
-    </row>
-    <row r="281" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A281" s="51" t="s">
+      <c r="B281" s="13"/>
+      <c r="C281" s="45"/>
+      <c r="D281" s="45"/>
+      <c r="E281" s="45"/>
+      <c r="F281" s="15"/>
+      <c r="G281" s="27"/>
+      <c r="H281" s="10"/>
+      <c r="I281" s="10"/>
+      <c r="J281" s="10"/>
+      <c r="K281" s="10"/>
+      <c r="L281" s="10"/>
+      <c r="M281" s="10"/>
+      <c r="N281" s="10"/>
+      <c r="O281" s="10"/>
+      <c r="P281" s="10"/>
+      <c r="Q281" s="10"/>
+      <c r="R281" s="10"/>
+    </row>
+    <row r="282" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A282" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="B281" s="9"/>
-      <c r="C281" s="44"/>
-      <c r="D281" s="44"/>
-      <c r="E281" s="44"/>
-      <c r="F281" s="14"/>
-      <c r="G281" s="25"/>
-      <c r="H281" s="9"/>
-      <c r="I281" s="9"/>
-      <c r="J281" s="9"/>
-      <c r="K281" s="9"/>
-      <c r="L281" s="9"/>
-      <c r="M281" s="9"/>
-      <c r="N281" s="9"/>
-      <c r="O281" s="9"/>
-      <c r="P281" s="9"/>
-      <c r="Q281" s="9"/>
-      <c r="R281" s="9"/>
-    </row>
-    <row r="282" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A282" s="52"/>
-      <c r="B282" s="10"/>
-      <c r="C282" s="45"/>
-      <c r="D282" s="45"/>
-      <c r="E282" s="45"/>
-      <c r="F282" s="15"/>
-      <c r="G282" s="27"/>
-      <c r="H282" s="10"/>
-      <c r="I282" s="10"/>
-      <c r="J282" s="10"/>
-      <c r="K282" s="10"/>
-      <c r="L282" s="10"/>
-      <c r="M282" s="10"/>
-      <c r="N282" s="10"/>
-      <c r="O282" s="10"/>
-      <c r="P282" s="10"/>
-      <c r="Q282" s="10"/>
-      <c r="R282" s="10"/>
-    </row>
-    <row r="283" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A283" s="52"/>
+      <c r="B282" s="9"/>
+      <c r="C282" s="44"/>
+      <c r="D282" s="44"/>
+      <c r="E282" s="44"/>
+      <c r="F282" s="14"/>
+      <c r="G282" s="25"/>
+      <c r="H282" s="9"/>
+      <c r="I282" s="9"/>
+      <c r="J282" s="9"/>
+      <c r="K282" s="9"/>
+      <c r="L282" s="9"/>
+      <c r="M282" s="9"/>
+      <c r="N282" s="9"/>
+      <c r="O282" s="9"/>
+      <c r="P282" s="9"/>
+      <c r="Q282" s="9"/>
+      <c r="R282" s="9"/>
+    </row>
+    <row r="283" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A283" s="59"/>
       <c r="B283" s="10"/>
       <c r="C283" s="45"/>
       <c r="D283" s="45"/>
@@ -6726,7 +7793,7 @@
       <c r="R283" s="10"/>
     </row>
     <row r="284" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A284" s="52"/>
+      <c r="A284" s="59"/>
       <c r="B284" s="10"/>
       <c r="C284" s="45"/>
       <c r="D284" s="45"/>
@@ -6745,8 +7812,8 @@
       <c r="Q284" s="10"/>
       <c r="R284" s="10"/>
     </row>
-    <row r="285" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A285" s="52"/>
+    <row r="285" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A285" s="59"/>
       <c r="B285" s="10"/>
       <c r="C285" s="45"/>
       <c r="D285" s="45"/>
@@ -6765,196 +7832,196 @@
       <c r="Q285" s="10"/>
       <c r="R285" s="10"/>
     </row>
-    <row r="286" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A286" s="52"/>
-      <c r="B286" s="11"/>
-      <c r="C286" s="47"/>
-      <c r="D286" s="47"/>
-      <c r="E286" s="47"/>
-      <c r="F286" s="16"/>
-      <c r="G286" s="33"/>
-      <c r="H286" s="11"/>
-      <c r="I286" s="11"/>
-      <c r="J286" s="11"/>
-      <c r="K286" s="11"/>
-      <c r="L286" s="11"/>
-      <c r="M286" s="11"/>
-      <c r="N286" s="11"/>
-      <c r="O286" s="11"/>
-      <c r="P286" s="11"/>
-      <c r="Q286" s="11"/>
-      <c r="R286" s="11"/>
-    </row>
-    <row r="287" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A287" s="51" t="s">
+    <row r="286" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A286" s="59"/>
+      <c r="B286" s="10"/>
+      <c r="C286" s="45"/>
+      <c r="D286" s="45"/>
+      <c r="E286" s="45"/>
+      <c r="F286" s="15"/>
+      <c r="G286" s="27"/>
+      <c r="H286" s="10"/>
+      <c r="I286" s="10"/>
+      <c r="J286" s="10"/>
+      <c r="K286" s="10"/>
+      <c r="L286" s="10"/>
+      <c r="M286" s="10"/>
+      <c r="N286" s="10"/>
+      <c r="O286" s="10"/>
+      <c r="P286" s="10"/>
+      <c r="Q286" s="10"/>
+      <c r="R286" s="10"/>
+    </row>
+    <row r="287" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A287" s="59"/>
+      <c r="B287" s="11"/>
+      <c r="C287" s="47"/>
+      <c r="D287" s="47"/>
+      <c r="E287" s="47"/>
+      <c r="F287" s="16"/>
+      <c r="G287" s="33"/>
+      <c r="H287" s="11"/>
+      <c r="I287" s="11"/>
+      <c r="J287" s="11"/>
+      <c r="K287" s="11"/>
+      <c r="L287" s="11"/>
+      <c r="M287" s="11"/>
+      <c r="N287" s="11"/>
+      <c r="O287" s="11"/>
+      <c r="P287" s="11"/>
+      <c r="Q287" s="11"/>
+      <c r="R287" s="11"/>
+    </row>
+    <row r="288" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A288" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B287" s="9"/>
-      <c r="C287" s="44"/>
-      <c r="D287" s="44"/>
-      <c r="E287" s="44"/>
-      <c r="F287" s="14"/>
-      <c r="G287" s="25"/>
-      <c r="H287" s="9"/>
-      <c r="I287" s="9"/>
-      <c r="J287" s="9"/>
-      <c r="K287" s="9"/>
-      <c r="L287" s="9"/>
-      <c r="M287" s="9"/>
-      <c r="N287" s="9"/>
-      <c r="O287" s="9"/>
-      <c r="P287" s="9"/>
-      <c r="Q287" s="9"/>
-      <c r="R287" s="9"/>
-    </row>
-    <row r="288" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A288" s="52"/>
-      <c r="B288" s="10"/>
-      <c r="C288" s="45"/>
-      <c r="D288" s="45"/>
-      <c r="E288" s="45"/>
-      <c r="F288" s="15"/>
-      <c r="G288" s="27"/>
-      <c r="H288" s="10"/>
-      <c r="I288" s="10"/>
-      <c r="J288" s="10"/>
-      <c r="K288" s="10"/>
-      <c r="L288" s="10"/>
-      <c r="M288" s="10"/>
-      <c r="N288" s="10"/>
-      <c r="O288" s="10"/>
-      <c r="P288" s="10"/>
-      <c r="Q288" s="10"/>
-      <c r="R288" s="10"/>
-    </row>
-    <row r="289" spans="1:18" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A289" s="52"/>
-      <c r="B289" s="11"/>
-      <c r="C289" s="47"/>
-      <c r="D289" s="47"/>
-      <c r="E289" s="47"/>
-      <c r="F289" s="16"/>
-      <c r="G289" s="33"/>
-      <c r="H289" s="11"/>
-      <c r="I289" s="11"/>
-      <c r="J289" s="11"/>
-      <c r="K289" s="11"/>
-      <c r="L289" s="11"/>
-      <c r="M289" s="11"/>
-      <c r="N289" s="11"/>
-      <c r="O289" s="11"/>
-      <c r="P289" s="11"/>
-      <c r="Q289" s="11"/>
-      <c r="R289" s="11"/>
+      <c r="B288" s="9"/>
+      <c r="C288" s="44"/>
+      <c r="D288" s="44"/>
+      <c r="E288" s="44"/>
+      <c r="F288" s="14"/>
+      <c r="G288" s="25"/>
+      <c r="H288" s="9"/>
+      <c r="I288" s="9"/>
+      <c r="J288" s="9"/>
+      <c r="K288" s="9"/>
+      <c r="L288" s="9"/>
+      <c r="M288" s="9"/>
+      <c r="N288" s="9"/>
+      <c r="O288" s="9"/>
+      <c r="P288" s="9"/>
+      <c r="Q288" s="9"/>
+      <c r="R288" s="9"/>
+    </row>
+    <row r="289" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A289" s="59"/>
+      <c r="B289" s="10"/>
+      <c r="C289" s="45"/>
+      <c r="D289" s="45"/>
+      <c r="E289" s="45"/>
+      <c r="F289" s="15"/>
+      <c r="G289" s="27"/>
+      <c r="H289" s="10"/>
+      <c r="I289" s="10"/>
+      <c r="J289" s="10"/>
+      <c r="K289" s="10"/>
+      <c r="L289" s="10"/>
+      <c r="M289" s="10"/>
+      <c r="N289" s="10"/>
+      <c r="O289" s="10"/>
+      <c r="P289" s="10"/>
+      <c r="Q289" s="10"/>
+      <c r="R289" s="10"/>
     </row>
     <row r="290" spans="1:18" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A290" s="4" t="s">
+      <c r="A290" s="59"/>
+      <c r="B290" s="11"/>
+      <c r="C290" s="47"/>
+      <c r="D290" s="47"/>
+      <c r="E290" s="47"/>
+      <c r="F290" s="16"/>
+      <c r="G290" s="33"/>
+      <c r="H290" s="11"/>
+      <c r="I290" s="11"/>
+      <c r="J290" s="11"/>
+      <c r="K290" s="11"/>
+      <c r="L290" s="11"/>
+      <c r="M290" s="11"/>
+      <c r="N290" s="11"/>
+      <c r="O290" s="11"/>
+      <c r="P290" s="11"/>
+      <c r="Q290" s="11"/>
+      <c r="R290" s="11"/>
+    </row>
+    <row r="291" spans="1:18" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A291" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B290" s="18"/>
-      <c r="C290" s="48"/>
-      <c r="D290" s="48"/>
-      <c r="E290" s="48"/>
-      <c r="F290" s="17"/>
-      <c r="G290" s="34"/>
-      <c r="H290" s="18"/>
-      <c r="I290" s="18"/>
-      <c r="J290" s="18"/>
-      <c r="K290" s="18"/>
-      <c r="L290" s="18"/>
-      <c r="M290" s="18"/>
-      <c r="N290" s="18"/>
-      <c r="O290" s="18"/>
-      <c r="P290" s="18"/>
-      <c r="Q290" s="18"/>
-      <c r="R290" s="18"/>
-    </row>
-    <row r="291" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A291" s="51" t="s">
+      <c r="B291" s="18"/>
+      <c r="C291" s="48"/>
+      <c r="D291" s="48"/>
+      <c r="E291" s="48"/>
+      <c r="F291" s="17"/>
+      <c r="G291" s="34"/>
+      <c r="H291" s="18"/>
+      <c r="I291" s="18"/>
+      <c r="J291" s="18"/>
+      <c r="K291" s="18"/>
+      <c r="L291" s="18"/>
+      <c r="M291" s="18"/>
+      <c r="N291" s="18"/>
+      <c r="O291" s="18"/>
+      <c r="P291" s="18"/>
+      <c r="Q291" s="18"/>
+      <c r="R291" s="18"/>
+    </row>
+    <row r="292" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A292" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="B291" s="9"/>
-      <c r="C291" s="44"/>
-      <c r="D291" s="44"/>
-      <c r="E291" s="44"/>
-      <c r="F291" s="14"/>
-      <c r="G291" s="25"/>
-      <c r="H291" s="9"/>
-      <c r="I291" s="9"/>
-      <c r="J291" s="9"/>
-      <c r="K291" s="9"/>
-      <c r="L291" s="9"/>
-      <c r="M291" s="9"/>
-      <c r="N291" s="9"/>
-      <c r="O291" s="9"/>
-      <c r="P291" s="9"/>
-      <c r="Q291" s="9"/>
-      <c r="R291" s="9"/>
-    </row>
-    <row r="292" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A292" s="52"/>
-      <c r="B292" s="11"/>
-      <c r="C292" s="47"/>
-      <c r="D292" s="47"/>
-      <c r="E292" s="47"/>
-      <c r="F292" s="16"/>
-      <c r="G292" s="33"/>
-      <c r="H292" s="11"/>
-      <c r="I292" s="11"/>
-      <c r="J292" s="11"/>
-      <c r="K292" s="11"/>
-      <c r="L292" s="11"/>
-      <c r="M292" s="11"/>
-      <c r="N292" s="11"/>
-      <c r="O292" s="11"/>
-      <c r="P292" s="11"/>
-      <c r="Q292" s="11"/>
-      <c r="R292" s="11"/>
-    </row>
-    <row r="293" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A293" s="51" t="s">
+      <c r="B292" s="9"/>
+      <c r="C292" s="44"/>
+      <c r="D292" s="44"/>
+      <c r="E292" s="44"/>
+      <c r="F292" s="14"/>
+      <c r="G292" s="25"/>
+      <c r="H292" s="9"/>
+      <c r="I292" s="9"/>
+      <c r="J292" s="9"/>
+      <c r="K292" s="9"/>
+      <c r="L292" s="9"/>
+      <c r="M292" s="9"/>
+      <c r="N292" s="9"/>
+      <c r="O292" s="9"/>
+      <c r="P292" s="9"/>
+      <c r="Q292" s="9"/>
+      <c r="R292" s="9"/>
+    </row>
+    <row r="293" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A293" s="59"/>
+      <c r="B293" s="11"/>
+      <c r="C293" s="47"/>
+      <c r="D293" s="47"/>
+      <c r="E293" s="47"/>
+      <c r="F293" s="16"/>
+      <c r="G293" s="33"/>
+      <c r="H293" s="11"/>
+      <c r="I293" s="11"/>
+      <c r="J293" s="11"/>
+      <c r="K293" s="11"/>
+      <c r="L293" s="11"/>
+      <c r="M293" s="11"/>
+      <c r="N293" s="11"/>
+      <c r="O293" s="11"/>
+      <c r="P293" s="11"/>
+      <c r="Q293" s="11"/>
+      <c r="R293" s="11"/>
+    </row>
+    <row r="294" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A294" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="B293" s="9"/>
-      <c r="C293" s="44"/>
-      <c r="D293" s="44"/>
-      <c r="E293" s="44"/>
-      <c r="F293" s="14"/>
-      <c r="G293" s="25"/>
-      <c r="H293" s="9"/>
-      <c r="I293" s="9"/>
-      <c r="J293" s="9"/>
-      <c r="K293" s="9"/>
-      <c r="L293" s="9"/>
-      <c r="M293" s="9"/>
-      <c r="N293" s="9"/>
-      <c r="O293" s="9"/>
-      <c r="P293" s="9"/>
-      <c r="Q293" s="9"/>
-      <c r="R293" s="9"/>
-    </row>
-    <row r="294" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A294" s="52"/>
-      <c r="B294" s="10"/>
-      <c r="C294" s="45"/>
-      <c r="D294" s="45"/>
-      <c r="E294" s="45"/>
-      <c r="F294" s="15"/>
-      <c r="G294" s="27"/>
-      <c r="H294" s="10"/>
-      <c r="I294" s="10"/>
-      <c r="J294" s="10"/>
-      <c r="K294" s="10"/>
-      <c r="L294" s="10"/>
-      <c r="M294" s="10"/>
-      <c r="N294" s="10"/>
-      <c r="O294" s="10"/>
-      <c r="P294" s="10"/>
-      <c r="Q294" s="10"/>
-      <c r="R294" s="10"/>
-    </row>
-    <row r="295" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A295" s="52"/>
+      <c r="B294" s="9"/>
+      <c r="C294" s="44"/>
+      <c r="D294" s="44"/>
+      <c r="E294" s="44"/>
+      <c r="F294" s="14"/>
+      <c r="G294" s="25"/>
+      <c r="H294" s="9"/>
+      <c r="I294" s="9"/>
+      <c r="J294" s="9"/>
+      <c r="K294" s="9"/>
+      <c r="L294" s="9"/>
+      <c r="M294" s="9"/>
+      <c r="N294" s="9"/>
+      <c r="O294" s="9"/>
+      <c r="P294" s="9"/>
+      <c r="Q294" s="9"/>
+      <c r="R294" s="9"/>
+    </row>
+    <row r="295" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A295" s="57"/>
       <c r="B295" s="10"/>
       <c r="C295" s="45"/>
       <c r="D295" s="45"/>
@@ -6974,7 +8041,7 @@
       <c r="R295" s="10"/>
     </row>
     <row r="296" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A296" s="52"/>
+      <c r="A296" s="57"/>
       <c r="B296" s="10"/>
       <c r="C296" s="45"/>
       <c r="D296" s="45"/>
@@ -6993,8 +8060,8 @@
       <c r="Q296" s="10"/>
       <c r="R296" s="10"/>
     </row>
-    <row r="297" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A297" s="52"/>
+    <row r="297" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A297" s="57"/>
       <c r="B297" s="10"/>
       <c r="C297" s="45"/>
       <c r="D297" s="45"/>
@@ -7014,7 +8081,7 @@
       <c r="R297" s="10"/>
     </row>
     <row r="298" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A298" s="52"/>
+      <c r="A298" s="57"/>
       <c r="B298" s="10"/>
       <c r="C298" s="45"/>
       <c r="D298" s="45"/>
@@ -7033,8 +8100,8 @@
       <c r="Q298" s="10"/>
       <c r="R298" s="10"/>
     </row>
-    <row r="299" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A299" s="52"/>
+    <row r="299" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A299" s="57"/>
       <c r="B299" s="10"/>
       <c r="C299" s="45"/>
       <c r="D299" s="45"/>
@@ -7053,8 +8120,8 @@
       <c r="Q299" s="10"/>
       <c r="R299" s="10"/>
     </row>
-    <row r="300" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A300" s="52"/>
+    <row r="300" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A300" s="57"/>
       <c r="B300" s="10"/>
       <c r="C300" s="45"/>
       <c r="D300" s="45"/>
@@ -7073,8 +8140,8 @@
       <c r="Q300" s="10"/>
       <c r="R300" s="10"/>
     </row>
-    <row r="301" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A301" s="52"/>
+    <row r="301" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A301" s="57"/>
       <c r="B301" s="10"/>
       <c r="C301" s="45"/>
       <c r="D301" s="45"/>
@@ -7093,32 +8160,77 @@
       <c r="Q301" s="10"/>
       <c r="R301" s="10"/>
     </row>
-    <row r="302" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A302" s="52"/>
-      <c r="B302" s="11"/>
-      <c r="C302" s="47"/>
-      <c r="D302" s="47"/>
-      <c r="E302" s="47"/>
-      <c r="F302" s="16"/>
-      <c r="G302" s="33"/>
-      <c r="H302" s="11"/>
-      <c r="I302" s="11"/>
-      <c r="J302" s="11"/>
-      <c r="K302" s="11"/>
-      <c r="L302" s="11"/>
-      <c r="M302" s="11"/>
-      <c r="N302" s="11"/>
-      <c r="O302" s="11"/>
-      <c r="P302" s="11"/>
-      <c r="Q302" s="11"/>
-      <c r="R302" s="11"/>
+    <row r="302" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A302" s="57"/>
+      <c r="B302" s="10"/>
+      <c r="C302" s="45"/>
+      <c r="D302" s="45"/>
+      <c r="E302" s="45"/>
+      <c r="F302" s="15"/>
+      <c r="G302" s="27"/>
+      <c r="H302" s="10"/>
+      <c r="I302" s="10"/>
+      <c r="J302" s="10"/>
+      <c r="K302" s="10"/>
+      <c r="L302" s="10"/>
+      <c r="M302" s="10"/>
+      <c r="N302" s="10"/>
+      <c r="O302" s="10"/>
+      <c r="P302" s="10"/>
+      <c r="Q302" s="10"/>
+      <c r="R302" s="10"/>
+    </row>
+    <row r="303" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A303" s="58"/>
+      <c r="B303" s="11"/>
+      <c r="C303" s="47"/>
+      <c r="D303" s="47"/>
+      <c r="E303" s="47"/>
+      <c r="F303" s="16"/>
+      <c r="G303" s="33"/>
+      <c r="H303" s="11"/>
+      <c r="I303" s="11"/>
+      <c r="J303" s="11"/>
+      <c r="K303" s="11"/>
+      <c r="L303" s="11"/>
+      <c r="M303" s="11"/>
+      <c r="N303" s="11"/>
+      <c r="O303" s="11"/>
+      <c r="P303" s="11"/>
+      <c r="Q303" s="11"/>
+      <c r="R303" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="A238:A239"/>
+    <mergeCell ref="A282:A287"/>
+    <mergeCell ref="A292:A293"/>
+    <mergeCell ref="A294:A303"/>
+    <mergeCell ref="A223:A225"/>
+    <mergeCell ref="A226:A228"/>
+    <mergeCell ref="A229:A231"/>
+    <mergeCell ref="A232:A234"/>
+    <mergeCell ref="A235:A237"/>
+    <mergeCell ref="A288:A290"/>
+    <mergeCell ref="A240:A242"/>
+    <mergeCell ref="A243:A245"/>
+    <mergeCell ref="A246:A247"/>
+    <mergeCell ref="A248:A250"/>
+    <mergeCell ref="A251:A253"/>
+    <mergeCell ref="A254:A256"/>
+    <mergeCell ref="A140:A149"/>
+    <mergeCell ref="A150:A159"/>
+    <mergeCell ref="A160:A169"/>
+    <mergeCell ref="A170:A179"/>
+    <mergeCell ref="A86:A94"/>
+    <mergeCell ref="A95:A103"/>
+    <mergeCell ref="A104:A112"/>
+    <mergeCell ref="A113:A121"/>
+    <mergeCell ref="A122:A130"/>
     <mergeCell ref="A257:A260"/>
     <mergeCell ref="A261:A264"/>
     <mergeCell ref="A265:A268"/>
-    <mergeCell ref="A271:A278"/>
+    <mergeCell ref="A272:A279"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A41:A54"/>
     <mergeCell ref="A55:A63"/>
@@ -7131,31 +8243,6 @@
     <mergeCell ref="A210:A219"/>
     <mergeCell ref="A220:A222"/>
     <mergeCell ref="A131:A139"/>
-    <mergeCell ref="A140:A149"/>
-    <mergeCell ref="A150:A159"/>
-    <mergeCell ref="A160:A169"/>
-    <mergeCell ref="A170:A179"/>
-    <mergeCell ref="A86:A94"/>
-    <mergeCell ref="A95:A103"/>
-    <mergeCell ref="A104:A112"/>
-    <mergeCell ref="A113:A121"/>
-    <mergeCell ref="A122:A130"/>
-    <mergeCell ref="A238:A239"/>
-    <mergeCell ref="A281:A286"/>
-    <mergeCell ref="A291:A292"/>
-    <mergeCell ref="A293:A302"/>
-    <mergeCell ref="A223:A225"/>
-    <mergeCell ref="A226:A228"/>
-    <mergeCell ref="A229:A231"/>
-    <mergeCell ref="A232:A234"/>
-    <mergeCell ref="A235:A237"/>
-    <mergeCell ref="A287:A289"/>
-    <mergeCell ref="A240:A242"/>
-    <mergeCell ref="A243:A245"/>
-    <mergeCell ref="A246:A247"/>
-    <mergeCell ref="A248:A250"/>
-    <mergeCell ref="A251:A253"/>
-    <mergeCell ref="A254:A256"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.51181102362204722" footer="0.51181102362204722"/>
